--- a/AWS_SOLUTION_ARCHITECT_ASSOCIATE_CHEAT_SHEET.xlsx
+++ b/AWS_SOLUTION_ARCHITECT_ASSOCIATE_CHEAT_SHEET.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AWS solution architect associate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D3AFD5-6756-4140-B7CA-0BF93E7B88F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3451492-A5B3-4A8C-A801-7557BA3975D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="3" r:id="rId1"/>
     <sheet name="IAM" sheetId="1" r:id="rId2"/>
     <sheet name="EC2 Instance" sheetId="4" r:id="rId3"/>
-    <sheet name="Private &amp; Public IP" sheetId="6" r:id="rId4"/>
-    <sheet name="Placement Group" sheetId="7" r:id="rId5"/>
-    <sheet name="Network Interface(NIC or ENI)" sheetId="8" r:id="rId6"/>
-    <sheet name="Security Groups" sheetId="5" r:id="rId7"/>
-    <sheet name="Notes" sheetId="2" r:id="rId8"/>
+    <sheet name="EC2 Instance Storage" sheetId="9" r:id="rId4"/>
+    <sheet name="AMI" sheetId="10" r:id="rId5"/>
+    <sheet name="Private &amp; Public IP" sheetId="6" r:id="rId6"/>
+    <sheet name="Placement Group" sheetId="7" r:id="rId7"/>
+    <sheet name="Network Interface(NIC or ENI)" sheetId="8" r:id="rId8"/>
+    <sheet name="Security Groups" sheetId="5" r:id="rId9"/>
+    <sheet name="Notes" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="222">
   <si>
     <t>Infrastructure URL</t>
   </si>
@@ -1448,6 +1450,724 @@
   </si>
   <si>
     <t>An instance can NOT be hibernated more than 60 days</t>
+  </si>
+  <si>
+    <t>An EBS (Elastic Block Store) Volume is a network drive you can attachto your instances while they run</t>
+  </si>
+  <si>
+    <t>It allows your instances to persist data, even after their termination</t>
+  </si>
+  <si>
+    <t>They can only be mounted to one instance at a time (at the CCP level)</t>
+  </si>
+  <si>
+    <t>They are bound to a specific availability zone</t>
+  </si>
+  <si>
+    <t>It’s a network drive (i.e. not a physical drive)</t>
+  </si>
+  <si>
+    <t>It uses the network to communicate the instance, which means there might be a bit of latency</t>
+  </si>
+  <si>
+    <t>It can be detached from an EC2 instance and attached to another one quickly</t>
+  </si>
+  <si>
+    <t>An EBS Volume in us-east-1a cannot be attached to us-east-1b</t>
+  </si>
+  <si>
+    <t>when an EC2 instance terminates:
+        By default, the root EBS volume is deleted (attribute enabled)
+        By default, any other attached EBS volume is not deleted (attribute disabled)</t>
+  </si>
+  <si>
+    <t>EBS Snapshots</t>
+  </si>
+  <si>
+    <t>Make a backup (snapshot) of your EBS volume at a point in time</t>
+  </si>
+  <si>
+    <t>Not necessary to detach volume to do snapshot, but recommended</t>
+  </si>
+  <si>
+    <t>EBS Snapshot Archive
+       Move a Snapshot to an ”archive tier” that is 75% cheaper
+       Takes within 24 to 72 hours for restoring the archive</t>
+  </si>
+  <si>
+    <t>Recycle Bin for EBS Snapshots
+        Setup rules to retain deleted snapshots so you can recover them after an accidental deletion
+        Specify retention (from 1 day to 1 year)</t>
+  </si>
+  <si>
+    <t>Fast Snapshot Restore (FSR)
+        Force full initialization of snapshot to have no latency on the first use ($$$)</t>
+  </si>
+  <si>
+    <t>To move a volume across, you first need to snapshot it(See EBS Snapshots section)</t>
+  </si>
+  <si>
+    <t>Can copy snapshots across AZ or Region(means you can create a snaphot in region 1 and create EBS
+volume with this snapshot in region 2)</t>
+  </si>
+  <si>
+    <t>AMI - Amazon Machine Image</t>
+  </si>
+  <si>
+    <t>AMI are a customization of an EC2 instance
+         You add your own software, configuration, operating system, monitoring…
+         Faster boot / configuration time because all your software is pre-packaged</t>
+  </si>
+  <si>
+    <t>You can launch EC2 instances from:
+        A Public AMI: AWS provided (ex. Amazon linux)
+        Your own AMI: you make and maintain them yourself
+        An AWS Marketplace AMI: an AMI someone else made (and potentially sells)</t>
+  </si>
+  <si>
+    <t>AMI Process from an EC2 Instance</t>
+  </si>
+  <si>
+    <t>Start an EC2 instance and customize it</t>
+  </si>
+  <si>
+    <t>Stop the instance (for data integrity)</t>
+  </si>
+  <si>
+    <t>Build an AMI – this will also create EBS snapshots</t>
+  </si>
+  <si>
+    <t>Launch instances from other AMIs</t>
+  </si>
+  <si>
+    <t>EC2 Instance Store</t>
+  </si>
+  <si>
+    <t>EBS volumes are network drives with good but “limited” performance</t>
+  </si>
+  <si>
+    <t>If you need a high-performance hardware disk, use EC2 Instance Store</t>
+  </si>
+  <si>
+    <t>EC2 Instance Store lose their storage if they’re stopped (ephemeral)</t>
+  </si>
+  <si>
+    <t>Good for buffer / cache / scratch data / temporary content</t>
+  </si>
+  <si>
+    <t>Risk of data loss if hardware fails</t>
+  </si>
+  <si>
+    <t>Backups and Replication are your responsibility</t>
+  </si>
+  <si>
+    <t>EBS Volume Types</t>
+  </si>
+  <si>
+    <t>EBS Volumes are characterized in Size | Throughput | IOPS (I/O Ops Per Sec)</t>
+  </si>
+  <si>
+    <t>Only gp2/gp3 and io1/io2 can be used as boot volumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBS Volumes come in 6 types
+      </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st1 (HDD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Low cost HDD(Hard Disk Drives) volume designed for frequently accessed, throughput- intensive workloads
+                                   Cannot be a boot volume
+                                    125 GiB to 16 TiB
+                                    Throughput Optimized HDD (st1):
+                                           Big Data, Data Warehouses, Log Processing
+                                           Max throughput 500 MiB/s – max IOPS 500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sc1 (HDD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cold HDD, Lowest cost HDD volume designed for less frequently accessed workloads
+                                  For data that is infrequently accessed
+                                  Scenarios where lowest cost is important
+                                  Max throughput 250 MiB/s – max IOPS 250</t>
+    </r>
+  </si>
+  <si>
+    <t>EBS Multi-Attach – io1/io2 family</t>
+  </si>
+  <si>
+    <t>Attach the same EBS volume to multiple EC2 instances in the same AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each instance has full read &amp; write permissions to the high-performance volume </t>
+  </si>
+  <si>
+    <t>Use case:
+         Achieve higher application availability in clustered Linux applications (ex: Teradata)
+         Applications must manage concurrent write operations</t>
+  </si>
+  <si>
+    <t>Up to 16 EC2 Instances at a time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must use a file system that’s cluster-aware (not XFS, EXT4, etc…) </t>
+  </si>
+  <si>
+    <t>EBS Encryption</t>
+  </si>
+  <si>
+    <t>When you create an encrypted EBS volume, you get the following:
+        Data at rest is encrypted inside the volume
+        All the data in flight moving between the instance and the volume is encrypted
+        All snapshots are encrypted
+        All volumes created from the snapshot are encrypted</t>
+  </si>
+  <si>
+    <t>Encryption and decryption are handled transparently (you have nothing to do)</t>
+  </si>
+  <si>
+    <t>Encryption has a minimal impact on latency</t>
+  </si>
+  <si>
+    <t>EBS Encryption leverages keys from KMS (AES-256)</t>
+  </si>
+  <si>
+    <t>Snapshots of encrypted volumes are encrypted</t>
+  </si>
+  <si>
+    <t>Copying an unencrypted snapshot allows encryption( Means using Copy feature of Snapshot give option to encrypt unencrypted snapshot</t>
+  </si>
+  <si>
+    <t>Encryption: encrypt an unencrypted EBS volume</t>
+  </si>
+  <si>
+    <t>Create an EBS snapshot of the volume</t>
+  </si>
+  <si>
+    <t>Encrypt the EBS snapshot ( using copy )</t>
+  </si>
+  <si>
+    <t>Create new ebs volume from the snapshot ( the volume will also be encrypted )</t>
+  </si>
+  <si>
+    <t>Now you can attach the encrypted volume to the original instance</t>
+  </si>
+  <si>
+    <t>EFS – Elastic File System</t>
+  </si>
+  <si>
+    <t>EBS Volume - Elastic Block Storage</t>
+  </si>
+  <si>
+    <t>EC2 Storage</t>
+  </si>
+  <si>
+    <t>Managed NFS (network file system) that can be mounted on many EC2</t>
+  </si>
+  <si>
+    <t>EFS works with EC2 instances in multi-AZ</t>
+  </si>
+  <si>
+    <t>Highly available, scalable, expensive (3x gp2), pay per use</t>
+  </si>
+  <si>
+    <t>Use cases: content management, web serving, data sharing, Wordpress</t>
+  </si>
+  <si>
+    <t>Uses NFSv4.1 protocol</t>
+  </si>
+  <si>
+    <t>Uses security group to control access to EFS</t>
+  </si>
+  <si>
+    <t>Compatible with Linux based AMI (not Windows)</t>
+  </si>
+  <si>
+    <t>Encryption at rest using KMS</t>
+  </si>
+  <si>
+    <t>POSIX file system (~Linux) that has a standard file API</t>
+  </si>
+  <si>
+    <t>File system scales automatically, pay-per-use, no capacity planning!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EFS Scale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       1000s of concurrent NFS clients, 10 GB+ /s throughput
+       Grow to Petabyte-scale network file system, automatically</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Performance Mode (set at EFS creation time)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>General Purpose (default)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – latency-sensitive use cases (web server, CMS, etc…)
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Max I/O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – higher latency, throughput, highly parallel (big data, media processing)</t>
+    </r>
+  </si>
+  <si>
+    <t>EFS – Storage Classes</t>
+  </si>
+  <si>
+    <t>EFS – Performance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Storage Tiers (lifecycle management feature – move file after N days)
+       Standard: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for frequently accessed files
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Infrequent access (EFS-IA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: cost to retrieve files,lower price to store. Enable EFS-IA with a Lifecycle Policy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Availability and durability(Storage Classes)
+        Standard: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Multi-AZ, great for prod
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>One Zone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: One AZ, great for dev, backup enabled by default, compatible with IA (EFS One Zone-IA).Over 90% in cost savings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Throughput Mode
+       Bursting –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 TB = 50MiB/s + burst of up to 100MiB/s
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enhanced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provisioned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – set your throughput regardless of storage size, ex: 1 GiB/s for 1 TB storage
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elastic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – automatically scales throughput up or down based on your workloads
+                              Up to 3GiB/s for reads and 1GiB/s for writes
+                              Used for unpredictable workloads</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gp2 / gp3 (SSD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: General purpose SSD volume that balances price and performance for a wide variety of workloads
+                                    Cost effective storage, low-latency
+                                    System boot volumes, Virtual desktops, Development and test environments
+                                    1 GiB - 16 TiB
+                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gp3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                           Baseline of 3,000 IOPS and throughput of 125 MiB/s
+                                           Can increase IOPS up to 16,000 and throughput up to 1000 MiB/s independently
+                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gp2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                           Small gp2 volumes can burst IOPS to 3,000
+                                           Size of the volume and IOPS are linked, max IOPS is 16,000
+                                           3 IOPS per GB, means at 5,334 GB we are at the max IOPS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>io1 / io2 (SSD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Provisioned IOPS Highest-performance SSD volume for mission-critical low-latency or high-throughput workloads
+                                   Critical business applications with sustained IOPS performance
+                                   Or applications that need more than 16,000 IOPS
+                                  Great for databases workloads (sensitive to storage perf and consistency)
+                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>io1/io2 (4 GiB - 16 TiB):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                        Max PIOPS: 64,000 for Nitro EC2 instances &amp; 32,000 for other
+                                        Can increase PIOPS independently from storage size
+                                        io2 have more durability and more IOPS per GiB (at the same price as io1)
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> io2 Block Express (4 GiB – 64 TiB):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                       Sub-millisecond latency
+                                       Max PIOPS: 256,000 with an IOPS:GiB ratio of 1,000:1
+                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Supports EBS Multi-attach(See Below Section)</t>
+    </r>
+  </si>
+  <si>
+    <t>AMI are built for a specific region, you cannot use them directly in other region but
+you can copy it in other region and then use it to create EC2 instance</t>
+  </si>
+  <si>
+    <t>Better I/O performance as compared to other Storage option</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +2373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1700,6 +2420,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1744,6 +2467,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1949,6 +2678,55 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7809341</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>3994150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5C1D89-A443-0BBE-83C4-E64E0E73ED2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635001" y="14966951"/>
+          <a:ext cx="7783940" cy="3962399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2407,6 +3185,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1444A312-FFC7-465E-8080-F1CB10BBBB59}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{0C100AA9-8DBB-4F69-8A5D-B469294C4775}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
@@ -2460,7 +3268,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2515,67 +3323,67 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
-      <c r="C25" s="27"/>
+      <c r="C25" s="28"/>
     </row>
     <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>3</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2584,22 +3392,22 @@
       <c r="A38" s="17">
         <v>4</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2608,17 +3416,17 @@
       <c r="A44" s="17">
         <v>5</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="35" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2634,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9F54C5-C7E6-4CCD-AF80-7D8DC6717BA8}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B72"/>
+    <sheetView topLeftCell="B68" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2654,17 +3462,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2673,42 +3481,42 @@
       <c r="A7" s="20">
         <v>2</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2737,7 +3545,7 @@
       <c r="B22" s="23"/>
     </row>
     <row r="23" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="32" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2751,12 +3559,12 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="32" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2775,7 +3583,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2808,7 +3616,7 @@
       <c r="B39" s="23"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="39" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2830,31 +3638,31 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="32"/>
+      <c r="B50" s="33"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="40" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2865,7 +3673,7 @@
       <c r="B53" s="23"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="42" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2875,7 +3683,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="33" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2894,12 +3702,12 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2918,33 +3726,62 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="33" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="33" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="33" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="33" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="32" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="20">
+        <v>8</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="24" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2955,6 +3792,466 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7CCC42-89AA-44C3-988B-A74B99D58E9B}">
+  <dimension ref="A1:B89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="114.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="33"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="33"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="44"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="44"/>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="20">
+        <v>2</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="20">
+        <v>3</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="B50" s="33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="B51" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B52" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="318" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="24"/>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="20">
+        <v>4</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="20">
+        <v>5</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B67" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="23"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="20">
+        <v>6</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B82" s="33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B83" s="33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="20">
+        <v>7</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B88" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C231497-3272-4EC9-A80A-1F1BA9FDD58E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="72.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7548946E-0D50-49AB-B4D1-E890484B2D04}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -2976,7 +4273,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3010,12 +4307,12 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="32" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3029,12 +4326,12 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3045,7 +4342,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3055,17 +4352,17 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3074,7 +4371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074511F-8E9E-4D0F-8C8D-ABC1EBBE8007}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3106,7 +4403,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3115,7 +4412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C005A05-B33E-4519-8153-1D35A073C306}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -3137,7 +4434,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3161,12 +4458,12 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3181,7 +4478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6EBDCB-4DE0-49A1-A75F-AD165E6B90C3}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -3228,7 +4525,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3261,7 +4558,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3271,12 +4568,12 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="42" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3287,34 +4584,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1444A312-FFC7-465E-8080-F1CB10BBBB59}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{0C100AA9-8DBB-4F69-8A5D-B469294C4775}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AWS_SOLUTION_ARCHITECT_ASSOCIATE_CHEAT_SHEET.xlsx
+++ b/AWS_SOLUTION_ARCHITECT_ASSOCIATE_CHEAT_SHEET.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AWS solution architect associate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3451492-A5B3-4A8C-A801-7557BA3975D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB217F-F16D-4979-8568-7F0EFF702727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="3" r:id="rId1"/>
     <sheet name="IAM" sheetId="1" r:id="rId2"/>
     <sheet name="EC2 Instance" sheetId="4" r:id="rId3"/>
     <sheet name="EC2 Instance Storage" sheetId="9" r:id="rId4"/>
-    <sheet name="AMI" sheetId="10" r:id="rId5"/>
-    <sheet name="Private &amp; Public IP" sheetId="6" r:id="rId6"/>
-    <sheet name="Placement Group" sheetId="7" r:id="rId7"/>
-    <sheet name="Network Interface(NIC or ENI)" sheetId="8" r:id="rId8"/>
-    <sheet name="Security Groups" sheetId="5" r:id="rId9"/>
-    <sheet name="Notes" sheetId="2" r:id="rId10"/>
+    <sheet name="HA &amp; Scalability" sheetId="11" r:id="rId5"/>
+    <sheet name="Load Balancer" sheetId="12" r:id="rId6"/>
+    <sheet name="ASG(Auto Scaling Group)" sheetId="14" r:id="rId7"/>
+    <sheet name="SSL or TLS" sheetId="13" r:id="rId8"/>
+    <sheet name="AMI" sheetId="10" r:id="rId9"/>
+    <sheet name="Private &amp; Public IP" sheetId="6" r:id="rId10"/>
+    <sheet name="Placement Group" sheetId="7" r:id="rId11"/>
+    <sheet name="Network Interface(NIC or ENI)" sheetId="8" r:id="rId12"/>
+    <sheet name="Security Groups" sheetId="5" r:id="rId13"/>
+    <sheet name="Notes" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="338">
   <si>
     <t>Infrastructure URL</t>
   </si>
@@ -830,6 +834,9 @@
     <t>Can get a discount of up to 90% compared to On-demand</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Define max spot price and get the instance while current spot price &lt; max
       The hourly spot price varies based on offer and capacity
       If the current spot price &gt; your max price you can choose to stop or terminate your instance
@@ -2168,6 +2175,701 @@
   </si>
   <si>
     <t>Better I/O performance as compared to other Storage option</t>
+  </si>
+  <si>
+    <t>Scalability &amp; High Availability</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>High Availability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Run instances for the same application across multi AZ
+         Auto Scaling Group multi AZ
+         Load Balancer multi AZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Horizontal Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Increase number of instances (= scale out / in)
+          Auto Scaling Group
+          Load Balancer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vertical Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Increase instance size (= scale up / down)
+          From: t2.nano - 0.5G of RAM, 1 vCPU
+          To: u-12tb1.metal – 12.3 TB of RAM, 448 vCPUs</t>
+    </r>
+  </si>
+  <si>
+    <t>What is load balancing?</t>
+  </si>
+  <si>
+    <t>Load Balances are servers that forward traffic to multiple servers (e.g., EC2 instances) downstream</t>
+  </si>
+  <si>
+    <t>Expose a single point of access (DNS) to your application</t>
+  </si>
+  <si>
+    <t>Seamlessly handle failures of downstream instances</t>
+  </si>
+  <si>
+    <t>Do regular health checks to your instances</t>
+  </si>
+  <si>
+    <t>Provide SSL termination (HTTPS) for your websites</t>
+  </si>
+  <si>
+    <t>Enforce stickiness with cookies</t>
+  </si>
+  <si>
+    <t>High availability across zones</t>
+  </si>
+  <si>
+    <t>Separate public traffic from private traffic</t>
+  </si>
+  <si>
+    <t>Why use an Elastic Load Balancer?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An Elastic Load Balancer is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>managed load balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       AWS guarantees that it will be working
+       AWS takes care of upgrades, maintenance, high availability
+       AWS provides only a few configuration knobs</t>
+    </r>
+  </si>
+  <si>
+    <t>It costs less to setup your own load balancer but it will be a lot more effort on your end</t>
+  </si>
+  <si>
+    <t>It is integrated with many AWS offerings / services
+         EC2, EC2 Auto Scaling Groups, Amazon ECS
+         AWS Certificate Manager (ACM), CloudWatch
+         Route 53, AWS WAF, AWS Global Accelerator</t>
+  </si>
+  <si>
+    <t>Health Checks</t>
+  </si>
+  <si>
+    <t>Health Checks are crucial for Load Balancers</t>
+  </si>
+  <si>
+    <t>They enable the load balancer to know if instances it forwards traffic to are available to reply to requests</t>
+  </si>
+  <si>
+    <t>The health check is done on a port and a route (/health is common)</t>
+  </si>
+  <si>
+    <t>If the response is not 200 (OK), then the instance is unhealthy</t>
+  </si>
+  <si>
+    <t>Some load balancers can be setup as internal (private) or external (public) ELBs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Application Load Balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (v2 - new generation) – 2016 – ALB
+         HTTP, HTTPS, WebSocket</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gateway Load Balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – 2020 – GWLB
+         Operates at layer 3 (Network layer) – IP Protocol</t>
+    </r>
+  </si>
+  <si>
+    <t>Load Balancer Security Groups allow HTTPS / HTTP From anywhere</t>
+  </si>
+  <si>
+    <t>Application Security Group: Allow traffic only from Load Balancer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Network Load Balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (v2 - new generation) – 2017
+         TCP, TLS (secure TCP), UDP</t>
+    </r>
+  </si>
+  <si>
+    <t>ALB - Application Load Balancer (v2)</t>
+  </si>
+  <si>
+    <t>Application load balancers is Layer 7 (HTTP)</t>
+  </si>
+  <si>
+    <t>Load balancing to multiple HTTP applications across machines(target groups)</t>
+  </si>
+  <si>
+    <t>Load balancing to multiple applications on the same machine(ex: containers)</t>
+  </si>
+  <si>
+    <t>Support for HTTP/2 and WebSocket</t>
+  </si>
+  <si>
+    <t>Support redirects (from HTTP to HTTPS for example)</t>
+  </si>
+  <si>
+    <t>Routing tables to different target groups:
+     Routing based on path in URL (example.com/users &amp; example.com/posts)
+     Routing based on hostname in URL (one.example.com &amp; other.example.com)
+     Routing based on Query String, Headers (example.com/users?id=123&amp;order=false)</t>
+  </si>
+  <si>
+    <t>ALB are a great fit for micro services &amp; container-based application (example: Docker &amp; Amazon ECS)</t>
+  </si>
+  <si>
+    <t>Has a port mapping feature to redirect to a dynamic port in ECS</t>
+  </si>
+  <si>
+    <t>Fixed hostname (XXX.region.elb.amazonaws.com)</t>
+  </si>
+  <si>
+    <t>The application servers don’t see the IP of the client directly
+        The true IP of the client is inserted in the header X-Forwarded-For
+        We can also get Port (X-Forwarded-Port) and proto (X-Forwarded-Proto)</t>
+  </si>
+  <si>
+    <t>Target Groups</t>
+  </si>
+  <si>
+    <t>EC2 instances (can be managed by an Auto Scaling Group) – HTTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS tasks (managed by ECS itself) – HTTP </t>
+  </si>
+  <si>
+    <t>Lambda functions – HTTP request is translated into a JSON event</t>
+  </si>
+  <si>
+    <t>IP Addresses – must be private IPs</t>
+  </si>
+  <si>
+    <t>ALB can route to multiple target groups</t>
+  </si>
+  <si>
+    <t>Health checks are at the target group level</t>
+  </si>
+  <si>
+    <t>Network Load Balancer (v2)</t>
+  </si>
+  <si>
+    <t>Network load balancers (Layer 4) allow to:
+          Forward TCP &amp; UDP traffic to your instances
+          Handle millions of request per seconds
+          Less latency ~100 ms (vs 400 ms for ALB)</t>
+  </si>
+  <si>
+    <t>NLB has one static IP per AZ, and supports assigning Elastic IP(helpful for whitelisting specific IP)</t>
+  </si>
+  <si>
+    <t>NLB are used for extreme performance, TCP or UDP traffic</t>
+  </si>
+  <si>
+    <t>EC2 instances</t>
+  </si>
+  <si>
+    <t>Application Load Balancer</t>
+  </si>
+  <si>
+    <t>Health Checks support the TCP, HTTP and HTTPS Protocols</t>
+  </si>
+  <si>
+    <t>NLB routes traffic at the TCP/UDP level, which means it does not have the ability to interpret the content of the HTTP requests.</t>
+  </si>
+  <si>
+    <t>When accessing your EC2 instances through an NLB, you can use either HTTP or TCP in your web browser. 
+However, NLB does not provide any specific HTTP-based routing or content-aware load balancing.</t>
+  </si>
+  <si>
+    <t>If you use HTTP, NLB will simply forward the HTTP traffic to the backend EC2 instances without analyzing the HTTP request details.</t>
+  </si>
+  <si>
+    <t>NLB does not have security Group,It directly forward the request to target groups which has security group</t>
+  </si>
+  <si>
+    <t>ALB has it own security group</t>
+  </si>
+  <si>
+    <t>Gateway Load Balancer</t>
+  </si>
+  <si>
+    <t>Operates at Layer 3 (Network Layer) – IP Packets</t>
+  </si>
+  <si>
+    <t>Deploy, scale, and manage a fleet of 3rd party network virtual appliances in AWS
+    Example: Firewalls, Intrusion Detection and Prevention Systems, Deep Packet Inspection Systems, payload manipulation, …</t>
+  </si>
+  <si>
+    <t>Combines the following functions:
+    Transparent Network Gateway – single entry/exit for all traffic
+    Load Balancer – distributes traffic to your virtual appliances</t>
+  </si>
+  <si>
+    <t>Uses the GENEVE protocol on port 6081</t>
+  </si>
+  <si>
+    <t>Sticky Session (Session Affinity)</t>
+  </si>
+  <si>
+    <t>It is possible to implement stickiness so that the same client is always redirected to the same instance behind a load balancer</t>
+  </si>
+  <si>
+    <t>This works for Classic Load Balancer,Application Load Balancer, and Network Load Balancer</t>
+  </si>
+  <si>
+    <t>For both CLB &amp; ALB, the “cookie” used for stickiness has an expiration date you control</t>
+  </si>
+  <si>
+    <t>Use case: make sure the user doesn’t lose his session data</t>
+  </si>
+  <si>
+    <t>Enabling stickiness may bring imbalance to the load over the backend EC2 instances</t>
+  </si>
+  <si>
+    <t>Application-based Cookies
+             Custom cookie
+                      Generated by the target
+                      Can include any custom attributes required by the application
+                      Cookie name must be specified individually for each target group
+                      Don’t use AWSALB, AWSALBAPP, or AWSALBTG (reserved for use by the ELB)
+            Application cookie
+                     Generated by the load balancer
+                     Cookie name is AWSALBAPP</t>
+  </si>
+  <si>
+    <t>Duration-based Cookies
+         Cookie generated by the load balancer 
+         Cookie name is AWSALB for ALB, AWSELB for CLB</t>
+  </si>
+  <si>
+    <t>Cross-Zone Load Balancing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With Cross Zone Load Balancing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:each load balancer instance distributes evenly across all registered instances in all AZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without Cross Zone Load Balancing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Requests are distributed in the instances of the node of the Elastic Load Balancer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Network Load Balancer &amp; Gateway Load Balancer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Disabled by default
+      You pay charges ($) for inter AZ data if enabled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Application Load Balancer : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Enabled by default (can be disabled at the Target Group level)
+      No charges for inter AZ data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Classic Load Balancer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Disabled by default
+      No charges for inter AZ data if enabled</t>
+    </r>
+  </si>
+  <si>
+    <t>SSL/TLS - Basics</t>
+  </si>
+  <si>
+    <t>An SSL Certificate allows traffic between your clients and your load balancer to be encrypted in transit (in-flight encryption)</t>
+  </si>
+  <si>
+    <t>SSL refers to Secure Sockets Layer, used to encrypt connections</t>
+  </si>
+  <si>
+    <t>TLS refers to Transport Layer Security, which is a newer version</t>
+  </si>
+  <si>
+    <t>SSL certificates have an expiration date (you set) and must be renewed</t>
+  </si>
+  <si>
+    <t>SSL Certificate on Load Balancer</t>
+  </si>
+  <si>
+    <t>The load balancer uses an X.509 certificate (SSL/TLS server certificate)</t>
+  </si>
+  <si>
+    <t>You can manage certificates using ACM (AWS Certificate Manager)</t>
+  </si>
+  <si>
+    <t>You can create upload your own certificates alternatively</t>
+  </si>
+  <si>
+    <t>HTTPS listener:
+      You must specify a default certificate
+      You can add an optional list of certs to support multiple domains
+      Clients can use SNI (Server Name Indication) to specify the hostname they reach
+      Ability to specify a security policy to support older versions of SSL / TLS (legacy clients)</t>
+  </si>
+  <si>
+    <t>SSL – Server Name Indication (SNI)</t>
+  </si>
+  <si>
+    <t>SNI solves the problem of loading multiple SSL certificates onto one web server (to serve multiple websites)</t>
+  </si>
+  <si>
+    <t>It’s a “newer” protocol, and requires the client to indicate the hostname of the target server in the initial SSL handshake</t>
+  </si>
+  <si>
+    <t>The server will then find the correct certificate, or return the default one</t>
+  </si>
+  <si>
+    <t>Only works for ALB &amp; NLB (newer generation), CloudFront</t>
+  </si>
+  <si>
+    <t>Does not work for CLB (older gen)</t>
+  </si>
+  <si>
+    <t>Supports multiple listeners with multiple SSL certificates,Uses Server Name Indication (SNI) to make it work</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Classic Load Balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (v1 - old generation) – 2009 – CLB : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deprecated Not used now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+         HTTP, HTTPS, TCP, SSL (secure TCP)
+         Support only one SSL certificate,Must use multiple CLB for multiple hostname with multiple SSL certificates</t>
+    </r>
+  </si>
+  <si>
+    <t>Connection Draining</t>
+  </si>
+  <si>
+    <t>Feature naming:
+     Connection Draining – for CLB
+     Deregistration Delay – for ALB &amp; NLB</t>
+  </si>
+  <si>
+    <t>Time to complete “in-flight requests” while the instance is de-registering or unhealthy</t>
+  </si>
+  <si>
+    <t>Stops sending new requests to the EC2 instance which is de-registering</t>
+  </si>
+  <si>
+    <t>Between 1 to 3600 seconds (default: 300 seconds)</t>
+  </si>
+  <si>
+    <t>Can be disabled (set value to 0)</t>
+  </si>
+  <si>
+    <t>Set to a low value if your requests are short</t>
+  </si>
+  <si>
+    <t>What’s an Auto Scaling Group</t>
+  </si>
+  <si>
+    <t>In real-life, the load on your websites and application can change</t>
+  </si>
+  <si>
+    <t>In the cloud, you can create and get rid of servers very quickly</t>
+  </si>
+  <si>
+    <t>The goal of an Auto Scaling Group (ASG) is to:
+       Scale out (add EC2 instances) to match an increased load
+       Scale in (remove EC2 instances) to match a decreased load
+       Ensure we have a minimum and a maximum number of EC2 instances running
+       Automatically register new instances to a load balancer
+       Re-create an EC2 instance in case a previous one is terminated (ex: if unhealthy)</t>
+  </si>
+  <si>
+    <t>ASG are free (you only pay for the underlying EC2 instances)</t>
+  </si>
+  <si>
+    <t>How New Automatic Instance get Created</t>
+  </si>
+  <si>
+    <t>Min Size / Max Size / Initial Capacity</t>
+  </si>
+  <si>
+    <t>A Launch Template (older “Launch Configurations” are deprecated) Used to create instances
+      AMI + Instance Type
+      EC2 User Data
+      EBS Volumes
+      Security Groups
+      SSH Key Pair
+      IAM Roles for your EC2 Instances
+      Network + Subnets Information
+      Load Balancer Information</t>
+  </si>
+  <si>
+    <t>Auto Scaling - CloudWatch Alarms &amp; Scaling</t>
+  </si>
+  <si>
+    <t>It is possible to scale an ASG based on CloudWatch alarms</t>
+  </si>
+  <si>
+    <t>An alarm monitors a metric (such as Average CPU, or a custom metric)</t>
+  </si>
+  <si>
+    <t>Metrics such as Average CPU are computed for the overall ASG instances</t>
+  </si>
+  <si>
+    <t>Based on the alarm:
+       We can create scale-out policies (increase the number of instances)
+       We can create scale-in policies (decrease the number of instances)</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +3075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2472,6 +3174,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3186,6 +3891,341 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7548946E-0D50-49AB-B4D1-E890484B2D04}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="90.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B10" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
+        <v>3</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074511F-8E9E-4D0F-8C8D-ABC1EBBE8007}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="91.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C005A05-B33E-4519-8153-1D35A073C306}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="70.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6EBDCB-4DE0-49A1-A75F-AD165E6B90C3}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="110" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1444A312-FFC7-465E-8080-F1CB10BBBB59}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3444,7 +4484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9F54C5-C7E6-4CCD-AF80-7D8DC6717BA8}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="B68" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
@@ -3584,7 +4624,7 @@
     </row>
     <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B33" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -3609,7 +4649,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -3639,22 +4679,22 @@
     </row>
     <row r="46" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B46" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B47" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B48" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B49" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -3663,7 +4703,7 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="212" customHeight="1" x14ac:dyDescent="0.35">
@@ -3674,22 +4714,22 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B54" s="42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B55" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="B56" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B57" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3698,22 +4738,22 @@
         <v>6</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B61" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B62" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B63" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3722,37 +4762,37 @@
         <v>7</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B67" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B68" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B69" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B70" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B71" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B72" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3761,27 +4801,27 @@
         <v>8</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B76" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B77" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B78" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3795,7 +4835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7CCC42-89AA-44C3-988B-A74B99D58E9B}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3809,62 +4849,62 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" s="33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -3872,42 +4912,42 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
@@ -3915,57 +4955,57 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -3980,37 +5020,37 @@
         <v>2</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B41" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B42" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B43" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -4019,42 +5059,42 @@
         <v>3</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B48" s="23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B49" s="33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="B50" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="B51" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B52" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B53" s="23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B54" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="318" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4066,32 +5106,32 @@
         <v>4</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B59" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B60" s="33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B61" s="33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B62" s="42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B63" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -4100,37 +5140,37 @@
         <v>5</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B67" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B68" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B69" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B70" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B71" s="23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B72" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -4138,27 +5178,27 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B74" s="42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B75" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B76" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B77" s="23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B78" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -4167,22 +5207,22 @@
         <v>6</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B82" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B83" s="33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B84" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -4191,17 +5231,17 @@
         <v>7</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B88" s="33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B89" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4211,6 +5251,754 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DECFAD2-42C6-491B-91E1-2BB880831D61}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B50A56A-D727-4F7B-877A-F95F5D50C0C4}">
+  <dimension ref="A1:B98"/>
+  <sheetViews>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="105.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="33"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17">
+        <v>2</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
+        <v>3</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B29" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="23"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="17">
+        <v>4</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B47" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B51" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B52" s="33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="33"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="17">
+        <v>5</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="23"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="17">
+        <v>6</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B80" s="33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="17">
+        <v>7</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B87" s="33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B88" s="33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="17">
+        <v>8</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B93" s="33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21A6A74-B165-49B1-9B17-2CC5EEE2A4BD}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="86.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A3E931-BAAF-4FAD-852F-C199231CE5D0}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="105.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
+        <v>2</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C231497-3272-4EC9-A80A-1F1BA9FDD58E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -4228,360 +6016,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7548946E-0D50-49AB-B4D1-E890484B2D04}">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="90.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
-        <v>1</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B10" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
-        <v>3</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074511F-8E9E-4D0F-8C8D-ABC1EBBE8007}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="91.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
-        <v>1</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C005A05-B33E-4519-8153-1D35A073C306}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="70.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
-        <v>1</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
-        <v>2</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6EBDCB-4DE0-49A1-A75F-AD165E6B90C3}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="110" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="20">
-        <v>1</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/AWS_SOLUTION_ARCHITECT_ASSOCIATE_CHEAT_SHEET.xlsx
+++ b/AWS_SOLUTION_ARCHITECT_ASSOCIATE_CHEAT_SHEET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AWS solution architect associate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB217F-F16D-4979-8568-7F0EFF702727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE1DBF7-FD1E-4B2A-95A3-C877FEF7FD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <sheet name="Placement Group" sheetId="7" r:id="rId11"/>
     <sheet name="Network Interface(NIC or ENI)" sheetId="8" r:id="rId12"/>
     <sheet name="Security Groups" sheetId="5" r:id="rId13"/>
-    <sheet name="Notes" sheetId="2" r:id="rId14"/>
+    <sheet name="Database" sheetId="16" r:id="rId14"/>
+    <sheet name="Cache" sheetId="17" r:id="rId15"/>
+    <sheet name="Route 53" sheetId="18" r:id="rId16"/>
+    <sheet name="Notes" sheetId="2" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="645">
   <si>
     <t>Infrastructure URL</t>
   </si>
@@ -2870,6 +2873,1921 @@
     <t>Based on the alarm:
        We can create scale-out policies (increase the number of instances)
        We can create scale-in policies (decrease the number of instances)</t>
+  </si>
+  <si>
+    <t>Where ASG attached in the Infrastructe.</t>
+  </si>
+  <si>
+    <t>ALB-&gt;Target-&gt;ASG</t>
+  </si>
+  <si>
+    <t>Auto Scaling Groups – Dynamic Scaling Policies</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target Tracking Scaling:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     Most simple and easy to set-up
+     Example: I want the average ASG CPU to stay at around 40%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Simple / Step Scaling:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When a CloudWatch alarm is triggered (example CPU &gt; 70%), then add 2 units
+     When a CloudWatch alarm is triggered (example CPU &lt; 30%), then remove 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Scheduled Actions:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anticipate a scaling based on known usage patterns
+    Example: increase the min capacity to 10 at 5 pm on Fridays</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Predictive Scaling:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>continuously forecast load and schedule scaling ahead</t>
+    </r>
+  </si>
+  <si>
+    <t>Good metrics to scale on</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPUUtilization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Average CPU utilization across your instances</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RequestCountPerTarget</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: to make sure the number of requests per EC2 instances is stable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Average Network In / Out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (if you’re application is network bound)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Any custom metric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (that you push using CloudWatch)</t>
+    </r>
+  </si>
+  <si>
+    <t>Scaling Cooldowns</t>
+  </si>
+  <si>
+    <t>After a scaling activity happens, you are in the cooldown period (default 300 seconds)</t>
+  </si>
+  <si>
+    <t>During the cooldown period, the ASG will not launch or terminate additional instances (to allow for metrics to stabilize)</t>
+  </si>
+  <si>
+    <t>Advice: Use a ready-to-use AMI to reduce configuration time in order to be serving request fasters and reduce the cooldown period</t>
+  </si>
+  <si>
+    <t>Amazon RDS</t>
+  </si>
+  <si>
+    <t>RDS stands for Relational Database Service</t>
+  </si>
+  <si>
+    <t>It’s a managed DB service for DB use SQL as a query language</t>
+  </si>
+  <si>
+    <t>It allows you to create databases in the cloud that are managed by AWS
+    Postgres,MySQL,MariaDB,Oracle,Microsoft SQL Server and Aurora (AWS Proprietary database)</t>
+  </si>
+  <si>
+    <t>Advantage over using RDS versus deploying DB on EC2</t>
+  </si>
+  <si>
+    <t>RDS is a managed service:
+    Automated provisioning, OS patching
+    Continuous backups and restore to specific timestamp (Point in Time Restore)!
+    Monitoring dashboards
+    Read replicas for improved read performance
+    Multi AZ setup for DR (Disaster Recovery)
+    Maintenance windows for upgrades
+    Scaling capability (vertical and horizontal)
+    Storage backed by EBS (gp2 or io1)</t>
+  </si>
+  <si>
+    <t>BUT you can’t SSH into your instances</t>
+  </si>
+  <si>
+    <t>RDS – Storage Auto Scaling</t>
+  </si>
+  <si>
+    <t>Helps you increase storage on your RDS DB instance dynamically</t>
+  </si>
+  <si>
+    <t>When RDS detects you are running out of free database storage, it scales automatically</t>
+  </si>
+  <si>
+    <t>Avoid manually scaling your database storage</t>
+  </si>
+  <si>
+    <t>You have to set Maximum Storage Threshold (maximum limit for DB storage)</t>
+  </si>
+  <si>
+    <t>Automatically modify storage if:
+    Free storage is less than 10% of allocated storage
+    Low-storage lasts at least 5 minutes
+    6 hours have passed since last modification</t>
+  </si>
+  <si>
+    <t>Useful for applications with unpredictable workloads</t>
+  </si>
+  <si>
+    <t>Supports all RDS database engines (MariaDB, MySQL, PostgreSQL, SQL Server, Oracle)</t>
+  </si>
+  <si>
+    <t>RDS Read Replicas for read scalability</t>
+  </si>
+  <si>
+    <t>Up to 15 Read Replicas</t>
+  </si>
+  <si>
+    <t>Within AZ, Cross AZ or Cross Region</t>
+  </si>
+  <si>
+    <t>Replication is ASYNC, so reads are eventually consistent</t>
+  </si>
+  <si>
+    <t>Replicas can be promoted to their own DB</t>
+  </si>
+  <si>
+    <t>Applications must update the connection string to leverage read replicas</t>
+  </si>
+  <si>
+    <t>You have a production database that is taking on normal load</t>
+  </si>
+  <si>
+    <t>You want to run a reporting application to run some analytics</t>
+  </si>
+  <si>
+    <t>You create a Read Replica to run the new workload there</t>
+  </si>
+  <si>
+    <t>The production application is unaffected</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
+  </si>
+  <si>
+    <t>Read replicas are used for SELECT (=read) only kind of statements (not INSERT, UPDATE, DELETE)</t>
+  </si>
+  <si>
+    <t>Network Cost</t>
+  </si>
+  <si>
+    <t>In AWS there’s a network cost when data goes from one AZ to another</t>
+  </si>
+  <si>
+    <t>For RDS Read Replicas within the same region, you don’t pay that fee</t>
+  </si>
+  <si>
+    <t>RDS Multi AZ (Disaster Recovery)</t>
+  </si>
+  <si>
+    <t>SYNC replication</t>
+  </si>
+  <si>
+    <t>One DNS name – automatic app failover to standby</t>
+  </si>
+  <si>
+    <t>Increase availability</t>
+  </si>
+  <si>
+    <t>Failover in case of loss of AZ, loss of network, instance or storage failure</t>
+  </si>
+  <si>
+    <t>No manual intervention in apps</t>
+  </si>
+  <si>
+    <t>Not used for scaling</t>
+  </si>
+  <si>
+    <t>Note:The Read Replicas be setup as Multi AZ for Disaster Recovery (DR)</t>
+  </si>
+  <si>
+    <t>RDS – From Single-AZ to Multi-AZ</t>
+  </si>
+  <si>
+    <t>Zero downtime operation (no need to stop the DB)</t>
+  </si>
+  <si>
+    <t>Just click on “modify” for the database</t>
+  </si>
+  <si>
+    <t>The following happens internally:
+      A snapshot is taken
+      A new DB is restored from the snapshot in a new AZ
+      Synchronization is established between the two databases</t>
+  </si>
+  <si>
+    <t>RDS Custom</t>
+  </si>
+  <si>
+    <t>Managed Oracle and Microsoft SQL Server Database with OS and database customization</t>
+  </si>
+  <si>
+    <t>Custom: access to the underlying database and OS so you can
+      Configure settings
+      Install patches
+      Enable native features
+      Access the underlying EC2 Instance using SSH or SSM Session Manager</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De-activate Automation Mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to perform your customization, better to take a DB snapshot before</t>
+    </r>
+  </si>
+  <si>
+    <t>RDS vs. RDS Custom
+      RDS: entire database and the OS to be managed by AWS
+      RDS Custom: full admin access to the underlying OS and the database</t>
+  </si>
+  <si>
+    <t>Amazon Aurora</t>
+  </si>
+  <si>
+    <t>Aurora is a proprietary technology from AWS (not open sourced)</t>
+  </si>
+  <si>
+    <t>Postgres and MySQL are both supported as Aurora DB (that means your drivers will work as if Aurora was a Postgres or MySQL database)</t>
+  </si>
+  <si>
+    <t>Aurora is “AWS cloud optimized” and claims 5x performance improvement over MySQL on RDS, over 3x the performance of Postgres on RDS</t>
+  </si>
+  <si>
+    <t>Aurora storage automatically grows in increments of 10GB, up to 128 TB</t>
+  </si>
+  <si>
+    <t>Aurora can have up to 15 replicas and the replication process is faster than MySQL (sub 10 ms replica lag)</t>
+  </si>
+  <si>
+    <t>Failover in Aurora is instantaneous. It’s HA (High Availability) native.</t>
+  </si>
+  <si>
+    <t>Aurora costs more than RDS (20% more) – but is more efficient</t>
+  </si>
+  <si>
+    <t>Aurora High Availability and Read Scaling</t>
+  </si>
+  <si>
+    <t>6 copies of your data across 3 AZ:
+        4 copies out of 6 needed for writes(means it needs confirmation that, data written to the 4 copies no need to wait to get confirmation from all 6 copies)
+        3 copies out of 6 need for reads
+        Self healing with peer-to-peer replication
+        Storage is striped across 100s of volumes</t>
+  </si>
+  <si>
+    <t>One Aurora Instance takes writes (master)</t>
+  </si>
+  <si>
+    <t>Automated failover for master in less than 30 seconds</t>
+  </si>
+  <si>
+    <t>Master + up to 15 Aurora Read Replicas serve reads</t>
+  </si>
+  <si>
+    <t>Support for Cross Region Replication</t>
+  </si>
+  <si>
+    <t>Aurora DB Cluster</t>
+  </si>
+  <si>
+    <t>Writer Endpoint Pointing to the master</t>
+  </si>
+  <si>
+    <t>Shared storage Volume Auto Expanding from 10G to 128 TB</t>
+  </si>
+  <si>
+    <t>Features of Aurora</t>
+  </si>
+  <si>
+    <t>Automatic fail-over</t>
+  </si>
+  <si>
+    <t>Backup and Recovery</t>
+  </si>
+  <si>
+    <t>Isolation and security</t>
+  </si>
+  <si>
+    <t>Industry compliance</t>
+  </si>
+  <si>
+    <t>Push-button scaling</t>
+  </si>
+  <si>
+    <t>Automated Patching with Zero Downtime</t>
+  </si>
+  <si>
+    <t>Advanced Monitoring</t>
+  </si>
+  <si>
+    <t>Routine Maintenance</t>
+  </si>
+  <si>
+    <t>Backtrack: restore data at any point of time without using backups</t>
+  </si>
+  <si>
+    <t>Reader Endpoint Connection Load Balancing(You can connect to Reader Endpoint and it will help in horizontal auto scaling)</t>
+  </si>
+  <si>
+    <t>Custom Endpoints</t>
+  </si>
+  <si>
+    <t>Define a subset of Aurora Instances as a Custom Endpoint</t>
+  </si>
+  <si>
+    <t>Example: Run analytical queries on specific replicas</t>
+  </si>
+  <si>
+    <t>The Reader Endpoint is generally not used after defining Custom Endpoints</t>
+  </si>
+  <si>
+    <t>Aurora Serverless</t>
+  </si>
+  <si>
+    <t>Automated database instantiation and auto - scaling based on actual usage</t>
+  </si>
+  <si>
+    <t>Good for infrequent, intermittent or unpredictable workloads</t>
+  </si>
+  <si>
+    <t>No capacity planning needed</t>
+  </si>
+  <si>
+    <t>Pay per second, can be more cost -effective</t>
+  </si>
+  <si>
+    <t>Aurora Serverless does not allow you to create more than one master database instance. However, it does allow you to automatically increase the instance
+class of your Aurora database. This means that your database can automatically scale up to a larger instance class if your application experiences more database activity.</t>
+  </si>
+  <si>
+    <t>Aurora Multi-Master</t>
+  </si>
+  <si>
+    <t>In case you want continuous write availability for the writer nodes</t>
+  </si>
+  <si>
+    <t>Every node does R/W - vs promoting a Read Replica as the new master in case of failover</t>
+  </si>
+  <si>
+    <t>Global Aurora</t>
+  </si>
+  <si>
+    <t>Aurora Cross Region Read Replicas:
+    Useful for disaster recovery
+    Simple to put in place</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aurora Global Database (recommended):
+     1 Primary Region (read / write)
+     Up to 5 secondary (read-only) regions, replication lag is less than 1 second
+     Up to 16 Read Replicas per secondary region
+     Helps for decreasing latency
+     Promoting another region (for disaster recovery) has an RTO of &lt; 1 minute
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Typical cross-region replication takes less than 1 second</t>
+    </r>
+  </si>
+  <si>
+    <t>Aurora Machine Learning</t>
+  </si>
+  <si>
+    <t>Enables you to add ML-based predictions to your applications via SQL</t>
+  </si>
+  <si>
+    <t>Simple, optimized, and secure integration between Aurora and AWS ML services</t>
+  </si>
+  <si>
+    <t>Supported services
+     Amazon SageMaker (use with any ML model)
+     Amazon Comprehend (for sentiment analysis)</t>
+  </si>
+  <si>
+    <t>Use cases: fraud detection, ads targeting, sentiment analysis, product recommendations</t>
+  </si>
+  <si>
+    <t>RDS Backups</t>
+  </si>
+  <si>
+    <t>Automated backups:
+    Daily full backup of the database (during the backup window)
+    Transaction logs are backed-up by RDS every 5 minutes
+    =&gt; ability to restore to any point in time (from oldest backup to 5 minutes ago)
+   1 to 35 days of retention, set 0 to disable automated backups</t>
+  </si>
+  <si>
+    <t>Manual DB Snapshots 
+    Manually triggered by the user 
+    Retention of backup for as long as you want</t>
+  </si>
+  <si>
+    <t>Trick: in a stopped RDS database, you will still pay for storage. If you plan on stopping it for a long time, you should snapshot &amp; restore instead</t>
+  </si>
+  <si>
+    <t>Aurora Backups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated backups 
+    1 to 35 days (cannot be disabled) 
+     point-in-time recovery in that timeframe </t>
+  </si>
+  <si>
+    <t>RDS &amp; Aurora Restore options</t>
+  </si>
+  <si>
+    <t>Restoring a RDS / Aurora backup or a snapshot creates a new database</t>
+  </si>
+  <si>
+    <t>Restoring MySQL RDS database from S3
+     Create a backup of your on-premises database
+     Store it on Amazon S3 (object storage)
+     Restore the backup file onto a new RDS instance running MySQL</t>
+  </si>
+  <si>
+    <t>Restoring MySQL Aurora cluster from S3
+     Create a backup of your on-premises database using Percona XtraBackup
+     Store the backup file on Amazon S3
+     Restore the backup file onto a new Aurora cluster running MySQL</t>
+  </si>
+  <si>
+    <t>Aurora Database Cloning</t>
+  </si>
+  <si>
+    <t>Create a new Aurora DB Cluster from an existing one</t>
+  </si>
+  <si>
+    <t>Faster than snapshot &amp; restore</t>
+  </si>
+  <si>
+    <t>Very fast &amp; cost-effective</t>
+  </si>
+  <si>
+    <t>Useful to create a “staging” database from a “production” database without impacting the production database</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uses copy-on-write protocol
+          Initially, the new DB cluster uses the same data volume as the original DB cluster (fast and efficient– no copying is needed)
+          When updates are made to the new DB cluster data, then additional storage is allocated and data is copied to be separated
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://docs.aws.amazon.com/AmazonRDS/latest/AuroraUserGuide/Aurora.Managing.Clone.html#Aurora.Managing.Clone.Protocol</t>
+    </r>
+  </si>
+  <si>
+    <t>RDS &amp; Aurora Security</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>At-rest encryption:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       Database master &amp; replicas encryption using AWS KMS – must be defined as launch time
+       If the master is not encrypted, the read replicas cannot be encrypted
+       To encrypt an un-encrypted database, go through a DB snapshot &amp; restore as encrypted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In-flight encryption:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TLS-ready by default, use the AWS TLS root certificates client-side</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IAM Authentication:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IAM roles to connect to your database (instead of username/pw)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Security Groups:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Control Network access to your RDS / Aurora DB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No SSH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>available</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> except on RDS Custom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Audit Logs can be enabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and sent to CloudWatch Logs for longer retention</t>
+    </r>
+  </si>
+  <si>
+    <t>Amazon RDS Proxy</t>
+  </si>
+  <si>
+    <t>Fully managed database proxy for RDS</t>
+  </si>
+  <si>
+    <t>Allows apps to pool and share DB connections established with the database</t>
+  </si>
+  <si>
+    <t>Improving database efficiency by reducing the stress on database resources (e.g., CPU, RAM) and minimize open connections (and timeouts)</t>
+  </si>
+  <si>
+    <t>Serverless, autoscaling, highly available (multi-AZ)</t>
+  </si>
+  <si>
+    <t>Reduced RDS &amp; Aurora failover time by up 66%</t>
+  </si>
+  <si>
+    <t>No code changes required for most apps</t>
+  </si>
+  <si>
+    <t>Enforce IAM Authentication for DB, and securely store credentials in AWS Secrets Manager</t>
+  </si>
+  <si>
+    <t>RDS Proxy is never publicly accessible (must be accessed from VPC)</t>
+  </si>
+  <si>
+    <t>Supports RDS (MySQL, PostgreSQL, MariaDB, MS SQL Server) and Aurora (MySQL, PostgreSQL)</t>
+  </si>
+  <si>
+    <t>Amazon ElastiCache</t>
+  </si>
+  <si>
+    <t>The same way RDS is to get managed Relational Databases</t>
+  </si>
+  <si>
+    <t>ElastiCache is to get managed Redis or Memcached</t>
+  </si>
+  <si>
+    <t>Caches are in-memory databases with really high performance, low latency</t>
+  </si>
+  <si>
+    <t>Helps reduce load off of databases for read intensive workloads</t>
+  </si>
+  <si>
+    <t>Helps make your application stateless</t>
+  </si>
+  <si>
+    <t>AWS takes care of OS maintenance / patching, optimizations, setup, configuration, monitoring, failure recovery and backups</t>
+  </si>
+  <si>
+    <t>Using ElastiCache involves heavy application code changes</t>
+  </si>
+  <si>
+    <t>ElastiCache Solution Architecture</t>
+  </si>
+  <si>
+    <t>Applications queries ElastiCache, if not available, get from RDS and store in ElastiCache</t>
+  </si>
+  <si>
+    <t>Helps relieve load in RDS</t>
+  </si>
+  <si>
+    <t>Cache must have an invalidation strategy to make sure only the most current data is used in there</t>
+  </si>
+  <si>
+    <t>Use Case to make application stateless</t>
+  </si>
+  <si>
+    <t>User logs into any of the application</t>
+  </si>
+  <si>
+    <t>The application writes the session data into ElastiCache</t>
+  </si>
+  <si>
+    <t>The user hits another instance of our application</t>
+  </si>
+  <si>
+    <t>The instance retrieves the data and the user is already logged in</t>
+  </si>
+  <si>
+    <t>ElastiCache – Redis vs Memcached</t>
+  </si>
+  <si>
+    <t>REDIS</t>
+  </si>
+  <si>
+    <t>Multi AZ with Auto-Failover</t>
+  </si>
+  <si>
+    <t>Read Replicas to scale reads and have high availability</t>
+  </si>
+  <si>
+    <t>Data Durability using AOF persistence</t>
+  </si>
+  <si>
+    <t>Backup and restore features</t>
+  </si>
+  <si>
+    <t>Supports Sets and Sorted Sets</t>
+  </si>
+  <si>
+    <t>MEMCACHED</t>
+  </si>
+  <si>
+    <t>Multi-node for partitioning of data (sharding)</t>
+  </si>
+  <si>
+    <t>No high availability (replication)</t>
+  </si>
+  <si>
+    <t>Non persistent</t>
+  </si>
+  <si>
+    <t>No backup and restore</t>
+  </si>
+  <si>
+    <t>Multi-threaded architecture</t>
+  </si>
+  <si>
+    <t>Cache Security</t>
+  </si>
+  <si>
+    <t>ElastiCache supports IAM Authentication for Redis</t>
+  </si>
+  <si>
+    <t>IAM policies on ElastiCache are only used for AWS API-level security</t>
+  </si>
+  <si>
+    <t>Redis AUTH
+    You can set a “password/token” when you create a Redis cluster
+    This is an extra level of security for your cache (on top of security groups)
+    Support SSL in flight encryption</t>
+  </si>
+  <si>
+    <t>Memcached - Supports SASL-based authentication (advanced)</t>
+  </si>
+  <si>
+    <t>Patterns for ElastiCache</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Write Through:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Adds or update data in the cache when written to a DB (no stale data)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Session Store:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> store temporary session data in a cache (using TTL features)</t>
+    </r>
+  </si>
+  <si>
+    <t>Redis Use Case</t>
+  </si>
+  <si>
+    <t>Gaming Leaderboards are computationally complex</t>
+  </si>
+  <si>
+    <t>Redis Sorted sets guarantee both uniqueness and element ordering</t>
+  </si>
+  <si>
+    <t>Each time a new element added, it’s ranked in real time, then added in correct order</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lazy Loading:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the cache is checked first, and then if the data is not found, it's loaded and inserted into the cache , data can become stale in cache</t>
+    </r>
+  </si>
+  <si>
+    <t>Amazon Route 53</t>
+  </si>
+  <si>
+    <t>A highly available, scalable, fully managed and Authoritative DNS
+       Authoritative = the customer (you) can update the DNS records</t>
+  </si>
+  <si>
+    <t>Route 53 is also a Domain Registrar</t>
+  </si>
+  <si>
+    <t>Ability to check the health of your resources</t>
+  </si>
+  <si>
+    <t>The only AWS service which provides 100% availability SLA</t>
+  </si>
+  <si>
+    <t>Why Route 53? 53 is a reference to the traditional DNS port</t>
+  </si>
+  <si>
+    <t>What is DNS</t>
+  </si>
+  <si>
+    <t>Domain Name System which translates the human friendly hostnames into the machine IP addresses</t>
+  </si>
+  <si>
+    <t>www.google.com =&gt; 172.217.18.36</t>
+  </si>
+  <si>
+    <t>DNS is the backbone of the Internet</t>
+  </si>
+  <si>
+    <t>DNS uses hierarchical naming structure
+       .com
+       example.com
+       www.example.com
+       api.example.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Domain Registrar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Amazon Route 53, GoDaddy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DNS Records:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A, AAAA, CNAME, NS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zone File:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contains DNS records</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name Server:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> resolves DNS queries (Authoritative or Non-Authoritative)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Top Level Domain (TLD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: .com, .us, .in, .gov, .org</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Second Level Domain (SLD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: amazon.com, google.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Route 53 – Records</t>
+  </si>
+  <si>
+    <t>How you want to route traffic for a domain</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each record contains:
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Domain/subdomain Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – e.g., example.com
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Record Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – e.g., A or AAAA
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – e.g., 12.34.56.78
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Routing Policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – how Route 53 responds to queries
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – amount of time the record cached at DNS Resolvers</t>
+    </r>
+  </si>
+  <si>
+    <t>Route 53 supports the following DNS record types:
+        (must know) A / AAAA / CNAME / NS
+        (advanced) CAA / DS / MX / NAPTR / PTR / SOA / TXT / SPF / SRV</t>
+  </si>
+  <si>
+    <t>Record Types</t>
+  </si>
+  <si>
+    <t>A – maps a hostname to IPv4</t>
+  </si>
+  <si>
+    <t>AAAA – maps a hostname to IPv6</t>
+  </si>
+  <si>
+    <t>CNAME – maps a hostname to another hostname
+          The target is a domain name which must have an A or AAAA record
+          Can’t create a CNAME record for the top node of a DNS namespace (Zone Apex)
+          Example: you can’t create for example.com, but you can create for www.example.com</t>
+  </si>
+  <si>
+    <t>NS – Name Servers for the Hosted Zone
+         Control how traffic is routed for a domain</t>
+  </si>
+  <si>
+    <t>Hosted Zones</t>
+  </si>
+  <si>
+    <t>A container for records that define how to route traffic to a domain and its subdomains</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Public Hosted Zones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – contains records that specify how to route traffic on the Internet (public domain names) application1.mypublicdomain.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Private Hosted Zones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – contain records that specify how you route traffic within one or more VPCs (private domain names) application1.company.internal</t>
+    </r>
+  </si>
+  <si>
+    <t>You pay $0.50 per month per hosted zone</t>
+  </si>
+  <si>
+    <t>Records TTL (Time To Live)</t>
+  </si>
+  <si>
+    <t>High TTL – e.g., 24 hr
+       Less traffic on Route 53
+       Possibly outdated records</t>
+  </si>
+  <si>
+    <t>Low TTL – e.g., 60 sec
+        More traffic on Route 53 ($$)
+        Records are outdated for less time
+        Easy to change records</t>
+  </si>
+  <si>
+    <t>Except for Alias records,TTL is mandatory for each DNS record</t>
+  </si>
+  <si>
+    <t>CNAME vs Alias</t>
+  </si>
+  <si>
+    <t>AWS Resources (Load Balancer, CloudFront...) expose an AWS hostname:
+         lb1-1234.us-east-2.elb.amazonaws.com and you want myapp.mydomain.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CNAME:
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A CNAME record can redirect DNS queries to any DNS record</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Points a hostname to any other hostname. (app.mydomain.com =&gt; blabla.anything.com)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ONLY FOR NON ROOT DOMAIN (aka. something.mydomain.com)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alias:
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Maps a hostname to an AWS resource
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An alias record can only redirect queries to selected AWS resources</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Points a hostname to an AWS Resource (app.mydomain.com =&gt; blabla.amazonaws.com)
+        Automatically recognizes changes in the resource’s IP addresses
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Works for ROOT DOMAIN and NON ROOT DOMAIN (aka mydomain.com)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        Alias Record is always of type A/AAAA for AWS resources (IPv4 / IPv6)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        Free of charge
+        Native health check
+        You can’t set the TTL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alias Records Targets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       Elastic Load Balancers
+       CloudFront Distributions
+       API Gateway
+       Elastic Beanstalk environments
+       S3 Websites
+       VPC Interface Endpoints
+       Global Accelerator accelerator
+       Route 53 record in the same hosted zone</t>
+    </r>
+  </si>
+  <si>
+    <t>You cannot set an ALIAS record for an EC2 DNS name</t>
+  </si>
+  <si>
+    <t>Routing Policies</t>
+  </si>
+  <si>
+    <t>Define how Route 53 responds to DNS queries</t>
+  </si>
+  <si>
+    <t>Don’t get confused by the word “Routing”
+       It’s not the same as Load balancer routing which routes the traffic
+       DNS does not route any traffic, it only responds to the DNS queries</t>
+  </si>
+  <si>
+    <t>Route 53 Supports the following Routing Policies
+    Simple
+    Weighted
+    Failover
+    Latency based
+    Geolocation
+    Multi-Value Answer
+    Geoproximity (using Route 53 Traffic Flow feature)</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Typically, route traffic to a single resource</t>
+  </si>
+  <si>
+    <t>Can specify multiple values in the same record</t>
+  </si>
+  <si>
+    <t>If multiple values are returned, a random one is chosen by the client</t>
+  </si>
+  <si>
+    <t>When Alias enabled, specify only one AWS resource</t>
+  </si>
+  <si>
+    <t>Can’t be associated with Health Checks</t>
+  </si>
+  <si>
+    <t>Weighted</t>
+  </si>
+  <si>
+    <t>Control the % of the requests that go to each specific resource</t>
+  </si>
+  <si>
+    <t>DNS records must have the same name and type</t>
+  </si>
+  <si>
+    <t>Can be associated with Health Checks</t>
+  </si>
+  <si>
+    <t>Use cases: load balancing between regions, testing new application versions</t>
+  </si>
+  <si>
+    <t>Assign a weight of 0 to a record to stop sending traffic to a resource</t>
+  </si>
+  <si>
+    <t>If all records have weight of 0, then all records will be returned equally</t>
+  </si>
+  <si>
+    <t>Assign each record a relative weight:
+      traffic(%) = (weight for a specific record)/ (sum of all the weights for all record)
+      Weights don’t need to sum up to 100</t>
+  </si>
+  <si>
+    <t>Latency -based</t>
+  </si>
+  <si>
+    <t>Redirect to the resource that has the least latency close to us</t>
+  </si>
+  <si>
+    <t>Super helpful when latency for users is a priority</t>
+  </si>
+  <si>
+    <t>Latency is based on traffic between users and AWS Regions</t>
+  </si>
+  <si>
+    <t>Germany users may be directed to the US (if that’s the lowest latency)</t>
+  </si>
+  <si>
+    <t>Can be associated with Health Checks (has a failover capability)</t>
+  </si>
+  <si>
+    <t>Failover (Active-Passive)</t>
+  </si>
+  <si>
+    <t>In case of failover, if primary node stop working then automatically redirected to secondary node</t>
+  </si>
+  <si>
+    <t>Geolocation</t>
+  </si>
+  <si>
+    <t>Different from Latency-based!</t>
+  </si>
+  <si>
+    <t>This routing is based on user location</t>
+  </si>
+  <si>
+    <t>Specify location by Continent, Country or by US State (if there’s overlapping, most precise location selected)</t>
+  </si>
+  <si>
+    <t>Should create a “Default” record (in case there’s no match on location)</t>
+  </si>
+  <si>
+    <t>Use cases: website localization, restrict content distribution, load balancing</t>
+  </si>
+  <si>
+    <t>Geoproximity</t>
+  </si>
+  <si>
+    <t>Route traffic to your resources based on the geographic location of users and resources</t>
+  </si>
+  <si>
+    <t>Ability to shift more traffic to resources based on the defined bias</t>
+  </si>
+  <si>
+    <t>To change the size of the geographic region, specify bias values:
+       To expand (1 to 99) – more traffic to the resource
+       To shrink (-1 to -99) – less traffic to the resource</t>
+  </si>
+  <si>
+    <t>Resources can be:
+       AWS resources (specify AWS region)
+       Non-AWS resources (specify Latitude and Longitude)</t>
+  </si>
+  <si>
+    <t>You must use Route 53 Traffic Flow to use this feature</t>
+  </si>
+  <si>
+    <t>IP-based Routing</t>
+  </si>
+  <si>
+    <t>Routing is based on clients’ IP addresses</t>
+  </si>
+  <si>
+    <t>You provide a list of CIDRs for your clients and the corresponding endpoints/locations (user-IP-to-endpoint mappings)</t>
+  </si>
+  <si>
+    <t>Use cases: Optimize performance, reduce network costs</t>
+  </si>
+  <si>
+    <t>Example: route end users from a particular ISP to a specific endpoint</t>
+  </si>
+  <si>
+    <t>Multi-Value</t>
+  </si>
+  <si>
+    <t>Use when routing traffic to multiple resources</t>
+  </si>
+  <si>
+    <t>Route 53 return multiple values/resources</t>
+  </si>
+  <si>
+    <t>Can be associated with Health Checks (return only values for healthy resources)</t>
+  </si>
+  <si>
+    <t>Up to 8 healthy records are returned for each Multi-Value query</t>
+  </si>
+  <si>
+    <t>Multi-Value is not a substitute for having an ELB</t>
+  </si>
+  <si>
+    <t>HTTP Health Checks are only for public resources</t>
+  </si>
+  <si>
+    <t>Health Check =&gt; Automated DNS Failover
+      Health checks that monitor an endpoint (application, server, other AWS resource)
+      Health checks that monitor other health checks (Calculated Health Checks)
+      Health checks that monitor CloudWatch Alarms (full control !!) – e.g., throttles of DynamoDB, alarms on RDS, custom metrics,… (helpful for private resources)</t>
+  </si>
+  <si>
+    <t>Health Checks are integrated with CW(Cloud Watch) metrics</t>
+  </si>
+  <si>
+    <t>Monitor an Endpoint</t>
+  </si>
+  <si>
+    <t>About 15 global health checkers will check the endpoint health
+       Healthy/Unhealthy Threshold – 3 (default)
+       Interval – 30 sec (can set to 10 sec – higher cost)
+       Supported protocol: HTTP, HTTPS and TCP
+       If &gt; 18% of health checkers report the endpoint is healthy, Route 53 considers it Healthy. Otherwise, it’s Unhealthy
+       Ability to choose which locations you want Route 53 to use</t>
+  </si>
+  <si>
+    <t>Health Checks pass only when the endpoint responds with the 2xx and 3xx status codes</t>
+  </si>
+  <si>
+    <t>Health Checks can be setup to pass / fail based on the text in the first 5120 bytes of the response</t>
+  </si>
+  <si>
+    <t>Configure you router/firewall to allow incoming requests from Route 53 Health Checkers</t>
+  </si>
+  <si>
+    <t>Calculated Health Checks</t>
+  </si>
+  <si>
+    <t>Combine the results of multiple Health Checks into a single Health Check</t>
+  </si>
+  <si>
+    <t>You can use OR, AND, or NOT</t>
+  </si>
+  <si>
+    <t>Can monitor up to 256 Child Health Checks</t>
+  </si>
+  <si>
+    <t>Specify how many of the health checks need to pass to make the parent pass</t>
+  </si>
+  <si>
+    <t>Usage: perform maintenance to your website without causing all health checks to fail</t>
+  </si>
+  <si>
+    <t>Private Hosted Zones</t>
+  </si>
+  <si>
+    <t>Route 53 health checkers are outside the VPC</t>
+  </si>
+  <si>
+    <t>They can’t access private endpoints (private VPC or on-premises resource)</t>
+  </si>
+  <si>
+    <t>You can create a CloudWatch Metric and associate a CloudWatch Alarm, then create a Health Check that checks the alarm itself</t>
+  </si>
+  <si>
+    <t>Domain Registar vs. DNS Service</t>
+  </si>
+  <si>
+    <t>You buy or register your domain name with a Domain Registrar typically by paying annual charges (e.g., GoDaddy, Amazon Registrar Inc., …)</t>
+  </si>
+  <si>
+    <t>The Domain Registrar usually provides you with a DNS service to manage your DNS records</t>
+  </si>
+  <si>
+    <t>But you can use another DNS service to manage your DNS records</t>
+  </si>
+  <si>
+    <t>Example: purchase the domain from GoDaddy and use Route 53 to manage your DNS records</t>
+  </si>
+  <si>
+    <t>3rd Party Registrar with Amazon Route 53</t>
+  </si>
+  <si>
+    <t>If you buy your domain on a 3rd party registrar, you can still use Route 53 as the DNS Service provider</t>
+  </si>
+  <si>
+    <t>Create a Hosted Zone in Route 53</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Update NS Records on 3rd party website to use Route 53 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name Servers</t>
+    </r>
+  </si>
+  <si>
+    <t>Domain Registrar != DNS Service</t>
+  </si>
+  <si>
+    <t>But every Domain Registrar usually comes with some DNS features</t>
   </si>
 </sst>
 </file>
@@ -3075,7 +4993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3084,26 +5002,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3115,43 +5021,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3172,12 +5060,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3480,6 +5384,192 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7366000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2413237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1382F0-7483-BC7C-1433-9D14E92A91CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692150" y="6496050"/>
+          <a:ext cx="7283450" cy="2368787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3771900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1416151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ACC1D7D-F5E3-5886-2D8F-48D367CF7575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="4495800"/>
+          <a:ext cx="3733800" cy="1371701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7480300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3974753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DD2B2E-62FE-B9C4-A110-352C4E2FB503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654050" y="5892800"/>
+          <a:ext cx="7435850" cy="3974753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6070600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>3151958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6622F4BF-DF86-8912-240B-AA2E39073A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679450" y="15510431"/>
+          <a:ext cx="6000750" cy="3141877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3756,7 +5846,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3769,30 +5859,30 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3800,15 +5890,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3816,10 +5906,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3835,45 +5925,45 @@
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="17">
+      <c r="A25" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3894,7 +5984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7548946E-0D50-49AB-B4D1-E890484B2D04}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3904,104 +5994,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>3</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="18" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="23" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4024,25 +6114,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="23" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4055,7 +6145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C005A05-B33E-4519-8153-1D35A073C306}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4065,49 +6155,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4119,10 +6209,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6EBDCB-4DE0-49A1-A75F-AD165E6B90C3}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4131,93 +6221,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="20">
+      <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="23" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4226,6 +6313,1717 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A338A-7612-4E80-B60E-DA6BFEE35593}">
+  <dimension ref="A1:B154"/>
+  <sheetViews>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="133.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="18"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="18" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B46" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="18"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="18" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="13">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="18" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="30" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="30" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="18"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="18"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="18" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="18"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="18" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="18"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="30" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="18" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B97" s="24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="18"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="30" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="18"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B104" s="24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B105" s="24" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="18"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B110" s="24" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="18" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="18"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="30" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B114" s="24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B115" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="18" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="18"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118" s="30" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B119" s="24" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B120" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="18"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="18"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="30" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B125" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B126" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="18"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B131" s="24" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="136" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="13">
+        <v>3</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B137" s="24" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B139" s="18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B140" s="18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B141" s="18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B142" s="19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="145" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="13">
+        <v>4</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B150" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B151" s="18" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B152" s="18" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B153" s="18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B154" s="19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD600FB-8F10-42E9-8D78-3590520E28D5}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="119.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="16">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="30" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="18" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="18" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="18"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="30" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="18" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="18" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="18" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="18" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="30" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="18" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="18" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="18" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="203.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="19"/>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="16">
+        <v>3</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B42" s="24" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="16">
+        <v>4</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="18" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="16">
+        <v>5</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB91151-9F5B-4650-93C6-5F0DE9B2CBAD}">
+  <dimension ref="A1:B153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142:B153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="139.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="18" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="113" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="1:2" ht="318.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19"/>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
+        <v>3</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="B26" s="24" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="24" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B32" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="23" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="13">
+        <v>4</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="30" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="250" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="19"/>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="13">
+        <v>5</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="24" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B46" s="24" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="39" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="13">
+        <v>6</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B51" s="24" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B52" s="24" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="B53" s="24" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="24" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="39" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="13">
+        <v>7</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="B61" s="24" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="18"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="30" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="18" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="18" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="30" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="30" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="18"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="30" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="18" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="18" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="18" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="18" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="18" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="18" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B77" s="24" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="18"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="30" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="18" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="18" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="18" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="18"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="30" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="18" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="18"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="30" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="18" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="30" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="18" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="18" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="18"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="30" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="18" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="18" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B100" s="24" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B101" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="30" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="18"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="18" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="18" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="18" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="18"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="30" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="18" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="18" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="18" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="39" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="118" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="13">
+        <v>8</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B120" s="24" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="18"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="30" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="B124" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="18" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="18" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="18"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="30" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="18" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B131" s="18" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="18" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B133" s="18" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B134" s="18" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="18"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="30" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B137" s="18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="18" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B139" s="19" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="142" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="13">
+        <v>9</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B144" s="18" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145" s="18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="18" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="18"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="30" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="18" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B150" s="18" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B151" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B152" s="18" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B153" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1444A312-FFC7-465E-8080-F1CB10BBBB59}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -4270,203 +8068,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="23"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="23"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="23"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="23"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="23"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="23"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="23"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="23"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="23"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="23"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="23"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="23"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="24"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
+      <c r="A23" s="13">
         <v>2</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="36"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
-      <c r="C24" s="28"/>
+      <c r="C24" s="37"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="37"/>
     </row>
     <row r="27" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="38"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="17">
+      <c r="A29" s="13">
         <v>3</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="17">
+      <c r="A38" s="13">
         <v>4</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="17">
+      <c r="A44" s="13">
         <v>5</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4494,333 +8292,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="20">
+      <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="23"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="23"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="23"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="23"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="23"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="23"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="23"/>
+      <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="23"/>
+      <c r="B22" s="18"/>
     </row>
     <row r="23" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="20">
+      <c r="A26" s="16">
         <v>3</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="32" t="s">
+    <row r="28" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="23" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="20">
+      <c r="A31" s="16">
         <v>4</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="23"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="27" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="133" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="24"/>
+      <c r="B41" s="19"/>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="20">
+      <c r="A44" s="16">
         <v>5</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="24" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="33"/>
+      <c r="B50" s="24"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="212" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="23"/>
+      <c r="B52" s="18"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="23"/>
+      <c r="B53" s="18"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="20">
+      <c r="A60" s="16">
         <v>6</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="20">
+      <c r="A66" s="16">
         <v>7</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="24" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="24" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="24" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="24" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="20">
+      <c r="A75" s="16">
         <v>8</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="25" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="18" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="19" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4845,402 +8643,402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="20">
+      <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="30" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="24" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="24" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="33"/>
+      <c r="B13" s="24"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="28" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="24" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="24" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="24" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="24" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="33"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="28" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="18" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="18" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="18" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="18" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="18" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="18" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="18" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="18" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="18" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="19" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="44"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="44"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="20">
+      <c r="A38" s="16">
         <v>2</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="18" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="24" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="23" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="20">
+      <c r="A47" s="16">
         <v>3</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="17" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="18" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="24" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="18" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="18" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="318" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="24"/>
+      <c r="B55" s="19"/>
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="20">
+      <c r="A58" s="16">
         <v>4</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="24" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="30" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="19" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="20">
+      <c r="A66" s="16">
         <v>5</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="17" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="24" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="18" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="18" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="18" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="23"/>
+      <c r="B73" s="18"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="30" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="18" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="18" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="18" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="19" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="20">
+      <c r="A81" s="16">
         <v>6</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="17" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="31" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="20">
+      <c r="A87" s="16">
         <v>7</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="24" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="23" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5264,74 +9062,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="24" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="24" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="23" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="25" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="18" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="19" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5345,8 +9143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B50A56A-D727-4F7B-877A-F95F5D50C0C4}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5355,445 +9153,445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="24" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="24" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="33"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="30" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="24" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="24" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="24" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="23" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>2</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="24" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="24" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="24" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="24" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="24" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="24" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="23" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
+      <c r="A23" s="13">
         <v>3</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="25" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="18" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="18" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="18" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="18" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="18" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="18" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="18" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="18" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="24" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="24" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="24" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="23"/>
+      <c r="B36" s="18"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="30" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="18" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="18" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="18" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="18" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="18" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="19" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="17">
+      <c r="A46" s="13">
         <v>4</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="17" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="24" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="18" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="18" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="18" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="24" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="24" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="24" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="33"/>
+      <c r="B55" s="24"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="30" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="18" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="18" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="18" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="19" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="17">
+      <c r="A63" s="13">
         <v>5</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="17" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="24" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="18" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="24" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="18" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="23"/>
+      <c r="B68" s="18"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="30" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="18" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="17">
+      <c r="A74" s="13">
         <v>6</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="17" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="18" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="18" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="18" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="18" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="18" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B80" s="33" t="s">
+      <c r="B80" s="24" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="23" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="17">
+      <c r="A84" s="13">
         <v>7</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="17" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="18" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="18" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="24" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="23" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="17">
+      <c r="A92" s="13">
         <v>8</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="25" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="24" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="18" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="18" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="18" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="18" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="19" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5805,87 +9603,188 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21A6A74-B165-49B1-9B17-2CC5EEE2A4BD}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="86.1796875" customWidth="1"/>
+    <col min="2" max="2" width="109.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="20">
+      <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="17" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="B3" s="18" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="B5" s="18" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="B6" s="18" t="s">
         <v>331</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="18"/>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="32" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="24" t="s">
         <v>332</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="18"/>
+    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="30" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="B12" s="18" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="B13" s="18" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="B14" s="18" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="23" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="18"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="19" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5903,92 +9802,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="23"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="30" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="23" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+      <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="17" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="18" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="18" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="18" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="19" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6012,25 +9911,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17">
+      <c r="A1" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>162</v>
       </c>
     </row>

--- a/AWS_SOLUTION_ARCHITECT_ASSOCIATE_CHEAT_SHEET.xlsx
+++ b/AWS_SOLUTION_ARCHITECT_ASSOCIATE_CHEAT_SHEET.xlsx
@@ -8,28 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AWS solution architect associate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE1DBF7-FD1E-4B2A-95A3-C877FEF7FD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80334A3-06AD-4001-A0AA-40D76A64A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="3" r:id="rId1"/>
     <sheet name="IAM" sheetId="1" r:id="rId2"/>
     <sheet name="EC2 Instance" sheetId="4" r:id="rId3"/>
-    <sheet name="EC2 Instance Storage" sheetId="9" r:id="rId4"/>
-    <sheet name="HA &amp; Scalability" sheetId="11" r:id="rId5"/>
-    <sheet name="Load Balancer" sheetId="12" r:id="rId6"/>
-    <sheet name="ASG(Auto Scaling Group)" sheetId="14" r:id="rId7"/>
-    <sheet name="SSL or TLS" sheetId="13" r:id="rId8"/>
-    <sheet name="AMI" sheetId="10" r:id="rId9"/>
-    <sheet name="Private &amp; Public IP" sheetId="6" r:id="rId10"/>
-    <sheet name="Placement Group" sheetId="7" r:id="rId11"/>
-    <sheet name="Network Interface(NIC or ENI)" sheetId="8" r:id="rId12"/>
-    <sheet name="Security Groups" sheetId="5" r:id="rId13"/>
-    <sheet name="Database" sheetId="16" r:id="rId14"/>
-    <sheet name="Cache" sheetId="17" r:id="rId15"/>
-    <sheet name="Route 53" sheetId="18" r:id="rId16"/>
-    <sheet name="Notes" sheetId="2" r:id="rId17"/>
+    <sheet name="EBS(BeanStalk)" sheetId="19" r:id="rId4"/>
+    <sheet name="EC2 Instance Storage" sheetId="9" r:id="rId5"/>
+    <sheet name="S3" sheetId="20" r:id="rId6"/>
+    <sheet name="HA &amp; Scalability" sheetId="11" r:id="rId7"/>
+    <sheet name="Cloud Front" sheetId="21" r:id="rId8"/>
+    <sheet name="Load Balancer" sheetId="12" r:id="rId9"/>
+    <sheet name="ASG(Auto Scaling Group)" sheetId="14" r:id="rId10"/>
+    <sheet name="SSL or TLS" sheetId="13" r:id="rId11"/>
+    <sheet name="AMI" sheetId="10" r:id="rId12"/>
+    <sheet name="Private &amp; Public IP" sheetId="6" r:id="rId13"/>
+    <sheet name="Placement Group" sheetId="7" r:id="rId14"/>
+    <sheet name="Network Interface(NIC or ENI)" sheetId="8" r:id="rId15"/>
+    <sheet name="Security Groups" sheetId="5" r:id="rId16"/>
+    <sheet name="Database" sheetId="16" r:id="rId17"/>
+    <sheet name="Cache" sheetId="17" r:id="rId18"/>
+    <sheet name="Route 53" sheetId="18" r:id="rId19"/>
+    <sheet name="Notes" sheetId="2" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="892">
   <si>
     <t>Infrastructure URL</t>
   </si>
@@ -4789,12 +4792,1988 @@
   <si>
     <t>But every Domain Registrar usually comes with some DNS features</t>
   </si>
+  <si>
+    <t>Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>Elastic Beanstalk is a developer centric view of deploying an application on AWS</t>
+  </si>
+  <si>
+    <t>It uses all the component’s we’ve seen before: EC2, ASG, ELB, RDS</t>
+  </si>
+  <si>
+    <t>Managed service
+      Automatically handles capacity provisioning, load balancing, scaling, application health monitoring, instance configuration
+      Just the application code is the responsibility of the developer</t>
+  </si>
+  <si>
+    <t>We still have full control over the configuration</t>
+  </si>
+  <si>
+    <t>Beanstalk is free but you pay for the underlying instances</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Application:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> collection of Elastic Beanstalk components (environments, versions, configurations, …)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Application Version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: an iteration of your application code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Environment
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Collection of AWS resources running an application version (only one application version at a time)
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tiers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Web Server Environment Tier &amp; Worker Environment Tier
+      You can create multiple environments (dev, test, prod, …)</t>
+    </r>
+  </si>
+  <si>
+    <t>Supported Platforms</t>
+  </si>
+  <si>
+    <t>Go, Java SE, Java with Tomcat, .NET Core on Linux, .NET on Windows Server , Node.js, PHP, Python, Ruby, Packer Builder, Single Container Docker
+Multi-container Docker, Preconfigured Docker, If not supported, you can write your custom platform</t>
+  </si>
+  <si>
+    <t>Web Server Tier vs. Worker Tier</t>
+  </si>
+  <si>
+    <t>Run a website, web application, or web API that serves HTTP requests</t>
+  </si>
+  <si>
+    <t>Run a worker application that processes long-running workloads on demand or performs tasks on a schedule</t>
+  </si>
+  <si>
+    <t>Elastic Beanstalk Deployment Modes</t>
+  </si>
+  <si>
+    <t>S3 - Bucket</t>
+  </si>
+  <si>
+    <t>It’s advertised as ”infinitely scaling” storage</t>
+  </si>
+  <si>
+    <t>Many websites use Amazon S3 as a backbone</t>
+  </si>
+  <si>
+    <t>Many AWS services use Amazon S3 as an integration as well</t>
+  </si>
+  <si>
+    <t>Amazon S3 allows people to store objects (files) in “buckets” (directories)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use cases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Backup and storage, Disaster Recovery, Archive, Hybrid Cloud storage, Application hosting, 
+Media hosting,  Data lakes &amp; big data analytics, Software delivery, Static website</t>
+    </r>
+  </si>
+  <si>
+    <t>Buckets must have a globally unique name (across all regions all accounts)</t>
+  </si>
+  <si>
+    <t>Buckets are defined at the region level</t>
+  </si>
+  <si>
+    <t>S3 looks like a global service but buckets are created in a region</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Naming convention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+No uppercase, No underscore, 3-63 characters long, Not an IP, Must start with lowercase letter or number
+Must NOT start with the prefix xn--,Must NOT end with the suffix -s3alias</t>
+    </r>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>Objects (files) have a Key</t>
+  </si>
+  <si>
+    <t>The key is the FULL path:
+   s3://my-bucket/my_file.txt
+   s3://my-bucket/my_folder1/another_folder/my_file.txt</t>
+  </si>
+  <si>
+    <t>The key is composed of prefix + object name
+s3://my-bucket/my_folder1/another_folder/my_file.txt</t>
+  </si>
+  <si>
+    <t>There’s no concept of “directories” within buckets (although the UI will trick you to think otherwise)</t>
+  </si>
+  <si>
+    <t>Just keys with very long names that contain slashes (“/”)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Object values are the content of the body:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Max. Object Size is 5TB (5000GB)
+  If uploading more than 5GB, must use “multi-part upload”</t>
+    </r>
+  </si>
+  <si>
+    <t>Metadata (list of text key / value pairs – system or user metadata)</t>
+  </si>
+  <si>
+    <t>Tags (Unicode key / value pair – up to 10) – useful for security / lifecycle</t>
+  </si>
+  <si>
+    <t>Version ID (if versioning is enabled)</t>
+  </si>
+  <si>
+    <t>S3 – Security</t>
+  </si>
+  <si>
+    <t>User-Based
+    IAM Policies – which API calls should be allowed for a specific user from IAM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resource-Based
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bucket Policies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – bucket wide rules from the S3 console - allows cross account
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object Access Control List (ACL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – finer grain (can be disabled)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bucket Access Control List (ACL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – less common (can be disabled)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: an IAM principal can access an S3 object if
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user IAM permissions ALLOW it OR the resource policy ALLOWS it AND there’s no explicit DENY
+     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encryption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: encrypt objects in Amazon S3 using encryption keys</t>
+    </r>
+  </si>
+  <si>
+    <t>Bucket Policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON based policie( see IAM section for more detail)
+     </t>
+  </si>
+  <si>
+    <t>Use S3 bucket for policy to
+     Grant public access to the bucket
+     Force objects to be encrypted at upload
+     Grant access to another account (Cross Account)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucket settings for Block Public Access
+</t>
+  </si>
+  <si>
+    <t>These settings were created to prevent company data leaks</t>
+  </si>
+  <si>
+    <t>If you know your bucket should never be public, leave these on</t>
+  </si>
+  <si>
+    <t>Can be set at the account level</t>
+  </si>
+  <si>
+    <t>Static Website Hosting</t>
+  </si>
+  <si>
+    <t>S3 can host static websites and have them accessible on the Internet</t>
+  </si>
+  <si>
+    <t>The website URL will be (depending on the region)
+      http://bucket-name.s3-website-aws-region.amazonaws.com
+      http://bucket-name.s3-website.aws-region.amazonaws.com</t>
+  </si>
+  <si>
+    <t>If you get a 403 Forbidden error, make sure the bucket policy allows public reads</t>
+  </si>
+  <si>
+    <t>Versioning</t>
+  </si>
+  <si>
+    <t>You can version your files in Amazon S3</t>
+  </si>
+  <si>
+    <t>It is enabled at the bucket level</t>
+  </si>
+  <si>
+    <t>Same key overwrite will change the “version”: 1, 2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is best practice to version your buckets
+      Protect against unintended deletes (ability to restore a version)
+      Easy roll back to previous version </t>
+  </si>
+  <si>
+    <t>Notes:
+      Any file that is not versioned prior to enabling versioning will have version “null”
+      Suspending versioning does not delete the previous versions</t>
+  </si>
+  <si>
+    <t>Replication (CRR &amp; SRR)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Must enable Versioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in source and destination buckets</t>
+    </r>
+  </si>
+  <si>
+    <t>Cross-Region Replication (CRR)</t>
+  </si>
+  <si>
+    <t>Same-Region Replication (SRR)</t>
+  </si>
+  <si>
+    <t>Buckets can be in different AWS accounts</t>
+  </si>
+  <si>
+    <t>Copying is asynchronous</t>
+  </si>
+  <si>
+    <t>Must give proper IAM permissions to S3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use cases:
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – compliance, lower latency access, replication across accounts
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SRR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – log aggregation, live replication between production and test accounts</t>
+    </r>
+  </si>
+  <si>
+    <t>After you enable Replication, only new objects are replicated</t>
+  </si>
+  <si>
+    <t>Optionally, you can replicate existing objects using S3 Batch Replication
+        Replicates existing objects and objects that failed replication</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For DELETE operations
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can replicate delete markers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from source to target (optional setting)
+       Deletions with a version ID are not replicated (to avoid malicious deletes)</t>
+    </r>
+  </si>
+  <si>
+    <t>There is no “chaining” of replication
+       If bucket 1 has replication into bucket 2, which has replication into bucket 3
+       Then objects created in bucket 1 are not replicated to bucket 3</t>
+  </si>
+  <si>
+    <t>S3 Storage Classes</t>
+  </si>
+  <si>
+    <t>Amazon S3 Standard - General Purpose</t>
+  </si>
+  <si>
+    <t>Amazon S3 Intelligent Tiering</t>
+  </si>
+  <si>
+    <t>Amazon S3 Standard-Infrequent Access (IA)</t>
+  </si>
+  <si>
+    <t>Amazon S3 One Zone-Infrequent Access</t>
+  </si>
+  <si>
+    <t>Amazon S3 Glacier Instant Retrieval</t>
+  </si>
+  <si>
+    <t>Amazon S3 Glacier Flexible Retrieval</t>
+  </si>
+  <si>
+    <t>Amazon S3 Glacier Deep Archive</t>
+  </si>
+  <si>
+    <t>Can move between classes manually or using S3 Lifecycle configurations</t>
+  </si>
+  <si>
+    <t>Moving between Storage Classes</t>
+  </si>
+  <si>
+    <t>You can transition objects between storage classes</t>
+  </si>
+  <si>
+    <t>For infrequently accessed object, move them to Standard IA</t>
+  </si>
+  <si>
+    <t>For archive objects that you don’t need fast access to, move them to Glacier or Glacier Deep Archive</t>
+  </si>
+  <si>
+    <t>Moving objects can be automated using a Lifecycle Rules</t>
+  </si>
+  <si>
+    <t>Lifecycle Rules</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transition Actions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – configure objects to transition to another storage class
+         Move objects to Standard IA class 60 days after creation
+         Move to Glacier for archiving after 6 months</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expiration actions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – configure objects to expire (delete) after some time
+         Access log files can be set to delete after a 365 days
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Can be used to delete old versions of files (if versioning is enabled)
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can be used to delete incomplete Multi-Part uploads</t>
+    </r>
+  </si>
+  <si>
+    <t>Rules can be created for a certain prefix (example: s3://mybucket/mp3/*)</t>
+  </si>
+  <si>
+    <t>Rules can be created for certain objects Tags (example: Department: Finance)</t>
+  </si>
+  <si>
+    <t>S3 Analytics – Storage Class Analysis</t>
+  </si>
+  <si>
+    <t>Help you decide when to transition objects to the right storage class</t>
+  </si>
+  <si>
+    <t>Recommendations for Standard and Standard IA
+      Does NOT work for One-Zone IA or Glacier</t>
+  </si>
+  <si>
+    <t>Report is updated daily</t>
+  </si>
+  <si>
+    <t>24 to 48 hours to start seeing data analysis</t>
+  </si>
+  <si>
+    <t>Requester Pays</t>
+  </si>
+  <si>
+    <t>In general, bucket owners pay for all Amazon S3 storage and data transfer costs associated with their bucket</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With Requester Pays buckets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the requester instead of the bucket owner pays the cost of the request and the data download from the bucket</t>
+    </r>
+  </si>
+  <si>
+    <t>Helpful when you want to share large datasets with other accounts</t>
+  </si>
+  <si>
+    <t>The requester must be authenticated in AWS (cannot be anonymous)</t>
+  </si>
+  <si>
+    <t>Event Notifications</t>
+  </si>
+  <si>
+    <t>S3:ObjectCreated, S3:ObjectRemoved, S3:ObjectRestore, S3:Replication</t>
+  </si>
+  <si>
+    <t>Object name filtering possible (*.jpg)</t>
+  </si>
+  <si>
+    <t>Use case: generate thumbnails of images uploaded to S3</t>
+  </si>
+  <si>
+    <t>Can create as many “S3 events” as desired</t>
+  </si>
+  <si>
+    <t>S3 event notifications typically deliver events in seconds but can sometimes take a minute or longer</t>
+  </si>
+  <si>
+    <t>Send Event Notification:
+   SNS
+   SQS
+   Lambda function
+attach access policy to all these</t>
+  </si>
+  <si>
+    <t>Amazon EventBridge</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Advanced filtering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> options with JSON rules (metadata, object size, name...)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple Destinations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – ex Step Functions, Kinesis Streams / Firehose</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventBridge Capabilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Archive, Replay Events, Reliable delivery – Archive, Replay Events, Reliable delivery</t>
+    </r>
+  </si>
+  <si>
+    <t>Baseline Performance</t>
+  </si>
+  <si>
+    <t>Amazon S3 automatically scales to high request rates, latency 100-200 ms</t>
+  </si>
+  <si>
+    <r>
+      <t>Your application can achieve at least</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3,500 PUT/COPY/POST/DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,500 GET/HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requests per second per prefix in a bucket.</t>
+    </r>
+  </si>
+  <si>
+    <t>There are no limits to the number of prefixes in a bucket</t>
+  </si>
+  <si>
+    <t>Example (object path =&gt; prefix)
+  bucket/folder1/sub1/file =&gt; /folder1/sub1/
+  bucket/folder1/sub2/file =&gt; /folder1/sub2/</t>
+  </si>
+  <si>
+    <t>If you spread reads across all four prefixes evenly, you can achieve 22,000 requests per second for GET and HEAD</t>
+  </si>
+  <si>
+    <t>Multi-Part upload</t>
+  </si>
+  <si>
+    <t>recommended for files &gt; 100MB, must use for files &gt; 5GB</t>
+  </si>
+  <si>
+    <t>Can help parallelize uploads (speed up transfers)</t>
+  </si>
+  <si>
+    <t>Transfer Acceleration</t>
+  </si>
+  <si>
+    <t>Increase transfer speed by transferring file to an AWS edge location which will forward the data to the S3 bucket in the target region</t>
+  </si>
+  <si>
+    <t>Compatible with multi-part upload</t>
+  </si>
+  <si>
+    <t>Byte-Range Fetches</t>
+  </si>
+  <si>
+    <t>Parallelize GETs by requesting specific byte ranges</t>
+  </si>
+  <si>
+    <t>Better resilience in case of failures</t>
+  </si>
+  <si>
+    <t>Can be used to speed up downloads</t>
+  </si>
+  <si>
+    <t>Can be used to retrieve only partial data (for example the head of a file)</t>
+  </si>
+  <si>
+    <t>S3 Select &amp; Glacier Select</t>
+  </si>
+  <si>
+    <t>Retrieve less data using SQL by performing server-side filtering</t>
+  </si>
+  <si>
+    <t>Can filter by rows &amp; columns (simple SQL statements)</t>
+  </si>
+  <si>
+    <t>Less network transfer, less CPU cost client-side</t>
+  </si>
+  <si>
+    <t>Batch Operations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perform bulk operations on existing S3 objects with a single request, example:
+       Modify object metadata &amp; properties
+       Copy objects between S3 buckets
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Encrypt un-encrypted objects
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modify ACLs, tags
+       Restore objects from S3 Glacier
+       Invoke Lambda function to perform custom action on each object</t>
+    </r>
+  </si>
+  <si>
+    <t>A job consists of a list of objects, the action to perform, and optional parameters</t>
+  </si>
+  <si>
+    <t>S3 Batch Operations manages retries, tracks progress, sends completion notifications, generate reports</t>
+  </si>
+  <si>
+    <t>You can use S3 Inventory to get object list and use S3 Select to filter your objects</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Object Encryption</t>
+  </si>
+  <si>
+    <t>You can encrypt objects in S3 buckets using one of 4 methods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Server-Side Encryption (SSE)
+      Server-Side Encryption with Amazon S3-Managed Keys (SSE-S3) – Enabled by Default
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            Encrypts S3 objects using keys handled, managed, and owned by AWS
+            Object is encrypted server-side
+            Encryption type is AES-256
+            Must set header </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"x-amz-server-side-encryption": "AES256"
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enabled by default for new buckets &amp; new objects</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      Server-Side Encryption with KMS Keys stored in AWS KMS (SSE-KMS)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            Leverage AWS Key Management Service (AWS KMS) to manage encryption keys
+            KMS advantages: user control + audit key usage using CloudTrail
+            Object is encrypted server side
+            Must set header </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"x-amz-server-side-encryption": "aws:kms"
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">If you use SSE-KMS, you may be impacted by the KMS limits
+            When you upload, it calls the GenerateDataKey KMS API
+            When you download, it calls the Decrypt KMS API
+            Count towards the KMS quota per second (5500, 10000, 30000 req/s based on region)
+            You can request a quota increase using the Service Quotas Console
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Server-Side Encryption with Customer-Provided Keys
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            When you want to manage your own encryption keys</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            Server-Side Encryption using keys fully managed by the customer outside of AWS
+            Amazon S3 does NOT store the encryption key you provide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            HTTPS must be used
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            Encryption key must provided in HTTP headers, for every HTTP request made</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Client-Side Encryption
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           Use client libraries such as Amazon S3 Client-Side Encryption Library
+           Clients must encrypt data themselves before sending to Amazon S3
+           Clients must decrypt data themselves when retrieving from Amazon S3
+           Customer fully manages the keys and encryption cycle</t>
+    </r>
+  </si>
+  <si>
+    <t>Encryption in transit (SSL/TLS)</t>
+  </si>
+  <si>
+    <t>Encryption in flight is also called SSL/TLS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amazon S3 exposes two endpoints:
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTTP Endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – non encrypted
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTTPS Endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – encryption in flight</t>
+    </r>
+  </si>
+  <si>
+    <t>HTTPS is recommended</t>
+  </si>
+  <si>
+    <t>HTTPS is mandatory for SSE-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force Encryption in Transit aws:SecureTransport
+</t>
+  </si>
+  <si>
+    <t>Default Encryption vs. Bucket Policies</t>
+  </si>
+  <si>
+    <t>SSE-S3 encryption is automatically applied to new objects stored in S3 bucket</t>
+  </si>
+  <si>
+    <t>Optionally, you can “force encryption” using a bucket policy and refuse any API call to PUT an S3 object without encryption headers (SSE-KMS or SSE-C)</t>
+  </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>Cross-Origin Resource Sharing (CORS)</t>
+  </si>
+  <si>
+    <t>Origin = scheme (protocol) + host (domain) + port
+         example: https://www.example.com (implied port is 443 for HTTPS, 80 for HTTP)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Web Browser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based mechanism to allow requests to other origins while visiting the main origin</t>
+    </r>
+  </si>
+  <si>
+    <t>Same origin: http://example.com/app1 &amp; http://example.com/app2</t>
+  </si>
+  <si>
+    <t>Different origins: http://www.example.com &amp; http://other.example.com</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The requests won’t be fulfilled unless the other origin allows for the requests, using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CORS Headers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (example: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Access-Control-Allow-Origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>If a client makes a cross-origin request on our S3 bucket, we need to enable the correct CORS headers</t>
+  </si>
+  <si>
+    <t>You can allow for a specific origin or for * (all origins)</t>
+  </si>
+  <si>
+    <t>MFA Delete</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MFA (Multi-Factor Authentication)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – force users to generate a code on a device (usually a mobile phone or hardware) before doing important operations on S3</t>
+    </r>
+  </si>
+  <si>
+    <t>MFA will be required to:
+      Permanently delete an object version
+      Suspend Versioning on the bucket</t>
+  </si>
+  <si>
+    <t>MFA won’t be required to:
+      Enable Versioning
+      List deleted versions</t>
+  </si>
+  <si>
+    <t>To use MFA Delete, Versioning must be enabled on the bucket</t>
+  </si>
+  <si>
+    <t>Only the bucket owner (root account) can enable/disable MFA Delete</t>
+  </si>
+  <si>
+    <t>Access Logs</t>
+  </si>
+  <si>
+    <t>For audit purpose, you may want to log all access to S3 buckets</t>
+  </si>
+  <si>
+    <t>Any request made to S3, from any account, authorized or denied, will be logged into another S3 bucket</t>
+  </si>
+  <si>
+    <t>That data can be analyzed using data analysis tools</t>
+  </si>
+  <si>
+    <t>The target logging bucket must be in the same AWS region</t>
+  </si>
+  <si>
+    <t>The log format is at:
+     https://docs.aws.amazon.com/AmazonS3/latest/dev/LogFormat.html</t>
+  </si>
+  <si>
+    <t>Do not set your logging bucket to be the monitored bucket</t>
+  </si>
+  <si>
+    <t>It will create a logging loop, and your bucket will grow exponentially</t>
+  </si>
+  <si>
+    <t>Pre-Signed URLs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate pre-signed URLs using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S3 Console, AWS CLI or SDK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">URL Expiration
+       S3 Console – 1 min up to 720 mins (12 hours)
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS CLI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – configure expiration with --expires-in parameter in seconds (default 3600 secs, max. 604800 secs ~ 168 hours)</t>
+    </r>
+  </si>
+  <si>
+    <t>Users given a pre-signed URL inherit the permissions of the user that generated the URL for GET / PUT</t>
+  </si>
+  <si>
+    <t>Examples:
+      Allow only logged-in users to download a premium video from your S3 bucket
+      Allow an ever-changing list of users to download files by generating URLs dynamically
+      Allow temporarily a user to upload a file to a precise location in your bucket</t>
+  </si>
+  <si>
+    <t>S3 Glacier Vault Lock</t>
+  </si>
+  <si>
+    <t>Adopt a WORM (Write Once Read Many) model</t>
+  </si>
+  <si>
+    <t>Create a Vault Lock Policy</t>
+  </si>
+  <si>
+    <t>Lock the policy for future edits (can no longer be changed or deleted)</t>
+  </si>
+  <si>
+    <t>Helpful for compliance and data retention</t>
+  </si>
+  <si>
+    <t>S3 Object Lock (versioning must be enabled)</t>
+  </si>
+  <si>
+    <t>Block an object version deletion for a specified amount of time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Retention mode - Compliance:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       Object versions can't be overwritten or deleted by any user, including the root user
+       Objects retention modes can't be changed, and retention periods can't be shortened</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Retention mode - Governance:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      Most users can't overwrite or delete an object version or alter its lock settings
+      Some users have special permissions to change the retention or delete the object</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Retention Period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: protect the object for a fixed period, it can be extended</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Legal Hold:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      protect the object indefinitely, independent from retention period
+      can be freely placed and removed using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s3:PutObjectLegalHold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IAM permission</t>
+    </r>
+  </si>
+  <si>
+    <t>Access Points</t>
+  </si>
+  <si>
+    <t>Access Points simplify security management for S3 Buckets</t>
+  </si>
+  <si>
+    <t>Each Access Point has:
+         its own DNS name (Internet Origin or VPC Origin)
+         an access point policy (similar to bucket policy) – manage security at scale</t>
+  </si>
+  <si>
+    <t>VPC Origin</t>
+  </si>
+  <si>
+    <t>We can define the access point to be accessible only from within the VPC</t>
+  </si>
+  <si>
+    <t>You must create a VPC Endpoint to access the Access Point (Gateway or Interface Endpoint)</t>
+  </si>
+  <si>
+    <t>The VPC Endpoint Policy must allow access to the target bucket and Access Point</t>
+  </si>
+  <si>
+    <t>Object Lambda</t>
+  </si>
+  <si>
+    <t>Use AWS Lambda Functions to change the object before it is retrieved by the caller application</t>
+  </si>
+  <si>
+    <t>Only one S3 bucket is needed, on top of which we create S3 Access Point and S3 Object Lambda Access Points.</t>
+  </si>
+  <si>
+    <t>Use Cases:
+     Redacting personally identifiable information for analytics or non- production environments
+     Converting across data formats, such as converting XML to JSON
+     Resizing and watermarking images on the fly using caller-specific details, such as the user who requested the object</t>
+  </si>
+  <si>
+    <t>CloudFront</t>
+  </si>
+  <si>
+    <t>Content Delivery Network (CDN)</t>
+  </si>
+  <si>
+    <t>Improves read performance, content is cached at the edge</t>
+  </si>
+  <si>
+    <t>Improves users experience</t>
+  </si>
+  <si>
+    <t>216 Point of Presence globally (edge locations)</t>
+  </si>
+  <si>
+    <t>DDoS protection (because worldwide), integration with Shield, AWS Web Application Firewall</t>
+  </si>
+  <si>
+    <t>CloudFront – Origins</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S3 bucket
+    For distributing files and caching them at the edge
+    Enhanced security with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CloudFront Origin Access Control (OAC)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    OAC is replacing Origin Access Identity (OAI)
+    CloudFront can be used as an ingress (to upload files to S3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Custom Origin (HTTP)
+    Application Load Balancer
+    EC2 instance
+    S3 website (must first enable the bucket as a static S3 website)
+    Any HTTP backend you want</t>
+  </si>
+  <si>
+    <t>CloudFront vs S3 Cross Region Replication</t>
+  </si>
+  <si>
+    <t>CloudFront:
+     Global Edge network
+     Files are cached for a TTL (maybe a day)
+     Great for static content that must be available everywhere</t>
+  </si>
+  <si>
+    <t>S3 Cross Region Replication:
+      Must be setup for each region you want replication to happen
+      Files are updated in near real-time
+      Read only
+      Great for dynamic content that needs to be available at low-latency in few regions</t>
+  </si>
+  <si>
+    <t>ALB or EC2 as an origin</t>
+  </si>
+  <si>
+    <t>Geo Restriction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can restrict who can access your distribution
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Allowlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Allow your users to access your content only if they're in one of the countries on a list of approved countries.
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blocklist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Prevent your users from accessing your content if they're in one of the countries on a list of banned countries.</t>
+    </r>
+  </si>
+  <si>
+    <t>The “country” is determined using a 3rd party Geo-IP database</t>
+  </si>
+  <si>
+    <t>Use case: Copyright Laws to control access to content</t>
+  </si>
+  <si>
+    <t>CloudFront Edge locations are all around the world</t>
+  </si>
+  <si>
+    <t>The cost of data out per edge location varies</t>
+  </si>
+  <si>
+    <t>Price Classes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can reduce the number of edge locations for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cost reduction</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Three price classes:
+  Price Class All: all regions – best performance
+  Price Class 200: most regions, but excludes the most expensive regions
+  Price Class 100: only the least expensive regions     </t>
+  </si>
+  <si>
+    <t>Cache Invalidations</t>
+  </si>
+  <si>
+    <t>In case you update the back-end origin, CloudFront doesn’t know about it and will only get the refreshed content after the TTL has expired</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However, you can force an entire or partial cache refresh (thus bypassing the TTL) by performing a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CloudFront Invalidation</t>
+    </r>
+  </si>
+  <si>
+    <t>You can invalidate all files (*) or a special path (/images/*)</t>
+  </si>
+  <si>
+    <t>Global users for our application</t>
+  </si>
+  <si>
+    <t>You have deployed an application and have global users who want to access it directly.</t>
+  </si>
+  <si>
+    <t>They go over the public internet, which can add a lot of latency due to many hops</t>
+  </si>
+  <si>
+    <t>We wish to go as fast as possible through AWS network to minimize latency</t>
+  </si>
+  <si>
+    <t>AWS Global Accelerator</t>
+  </si>
+  <si>
+    <t>Unicast IP vs Anycast IP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unicast IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: one server holds one IP address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anycast IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: all servers hold the same IP address and the client is routed to the nearest one</t>
+    </r>
+  </si>
+  <si>
+    <t>Global Accelerator</t>
+  </si>
+  <si>
+    <t>Leverage the AWS internal network to route to your application</t>
+  </si>
+  <si>
+    <t>2 Anycast IP are created for your application</t>
+  </si>
+  <si>
+    <t>The Anycast IP send traffic directly to Edge Locations</t>
+  </si>
+  <si>
+    <t>The Edge locations send the traffic to your application</t>
+  </si>
+  <si>
+    <t>Works with Elastic IP, EC2 instances, ALB, NLB, public or private</t>
+  </si>
+  <si>
+    <t>Consistent Performance
+  Intelligent routing to lowest latency and fast regional failover
+  No issue with client cache (because the IP doesn’t change)
+  Internal AWS network</t>
+  </si>
+  <si>
+    <t>Health Checks
+  Global Accelerator performs a health check of your applications
+  Helps make your application global (failover less than 1 minute for unhealthy)
+  Great for disaster recovery (thanks to the health checks)</t>
+  </si>
+  <si>
+    <t>Security
+  only 2 external IP need to be whitelisted
+  DDoS protection thanks to AWS Shield</t>
+  </si>
+  <si>
+    <t>AWS Global Accelerator vs CloudFront</t>
+  </si>
+  <si>
+    <t>They both use the AWS global network and its edge locations around the world</t>
+  </si>
+  <si>
+    <t>Both services integrate with AWS Shield for DDoS protection</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CloudFront</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  Improves performance for both cacheable content (such as images and videos)
+  Dynamic content (such as API acceleration and dynamic site delivery)
+  Content is served at the edge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Global Accelerator
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Improves performance for a wide range of applications over TCP or UDP
+  Proxying packets at the edge to applications running in one or more AWS Regions.
+  Good fit for non-HTTP use cases, such as gaming (UDP), IoT (MQTT), or Voice over IP
+  Good for HTTP use cases that require static IP addresses
+  Good for HTTP use cases that required deterministic, fast regional failover</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4819,6 +6798,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4993,7 +6980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5063,6 +7050,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5081,7 +7069,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5291,6 +7284,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6991350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3189639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F31C9B7-1161-60EF-F931-EBD026BC0C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628651" y="4635500"/>
+          <a:ext cx="6972299" cy="3189639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>25401</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>31751</xdr:rowOff>
@@ -5335,7 +7377,545 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4432300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1839001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516CCF5E-9D94-1405-0372-01F4EE4FC4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679450" y="9734550"/>
+          <a:ext cx="4362450" cy="1546901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6089651</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>2748928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C828920-A75E-A185-3673-3AABAC513557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628651" y="21520150"/>
+          <a:ext cx="6070600" cy="2742578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>2730500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5988050</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>5168069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE195C1-A04A-15B1-154B-8CBFB7D84043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="24250650"/>
+          <a:ext cx="5975350" cy="2437569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>69851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1339850</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>2126775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF6336B-6DA4-DB16-2C7F-D472B7C6530E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615950" y="31623001"/>
+          <a:ext cx="1333500" cy="2056924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3124200</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>2831105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D94F80D-474D-377B-4573-2D7F44C17D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654050" y="53689250"/>
+          <a:ext cx="3079750" cy="2646955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107951</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6319921</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>2146300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2946B6E-89D4-88E8-F0DD-FCB5A221A6F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717551" y="57156350"/>
+          <a:ext cx="6211970" cy="2127250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5975350</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>1708035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE80B117-F92B-9E73-88D9-A44B6BFDED6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635001" y="73463150"/>
+          <a:ext cx="5949949" cy="1688985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3390900</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>2740781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{617A8A27-A5F6-5072-E227-1CE51F42F70C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="76168250"/>
+          <a:ext cx="3352800" cy="2740781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5981700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2709125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE9137A-2B00-D5A1-98AE-68368332F90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666751" y="3371851"/>
+          <a:ext cx="5924549" cy="2664674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5403850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2237692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF939FD0-3F37-3320-DC70-351A895FF8EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666751" y="9080501"/>
+          <a:ext cx="5346699" cy="2212291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6108701</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2310853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C69C7CA-A654-2774-56B5-7CB790569F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660401" y="13817600"/>
+          <a:ext cx="6057900" cy="2279103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7143750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1697446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3363EDF2-F0E9-DCC8-97F2-371CA2A4B8C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="641350" y="17379950"/>
+          <a:ext cx="7112000" cy="1652996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5384,7 +7964,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5433,7 +8013,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5868,10 +8448,10 @@
       <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
@@ -5981,6 +8561,343 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21A6A74-B165-49B1-9B17-2CC5EEE2A4BD}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="109.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="16">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="18"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A3E931-BAAF-4FAD-852F-C199231CE5D0}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="105.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C231497-3272-4EC9-A80A-1F1BA9FDD58E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="72.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7548946E-0D50-49AB-B4D1-E890484B2D04}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -6100,7 +9017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074511F-8E9E-4D0F-8C8D-ABC1EBBE8007}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6141,7 +9058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C005A05-B33E-4519-8153-1D35A073C306}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -6207,7 +9124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6EBDCB-4DE0-49A1-A75F-AD165E6B90C3}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -6312,7 +9229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A338A-7612-4E80-B60E-DA6BFEE35593}">
   <dimension ref="A1:B154"/>
   <sheetViews>
@@ -7050,7 +9967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD600FB-8F10-42E9-8D78-3590520E28D5}">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -7315,12 +10232,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB91151-9F5B-4650-93C6-5F0DE9B2CBAD}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142:B153"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7530,7 +10447,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="33" t="s">
         <v>560</v>
       </c>
     </row>
@@ -7564,7 +10481,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="33" t="s">
         <v>566</v>
       </c>
     </row>
@@ -7842,7 +10759,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="33" t="s">
         <v>615</v>
       </c>
     </row>
@@ -8023,7 +10940,232 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="66.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="18"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="18"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="18"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>2</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="37"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+      <c r="C25" s="38"/>
+    </row>
+    <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="38"/>
+    </row>
+    <row r="27" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="39"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>3</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>4</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B40" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="13">
+        <v>5</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="C24:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1444A312-FFC7-465E-8080-F1CB10BBBB59}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -8050,231 +11192,6 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{0C100AA9-8DBB-4F69-8A5D-B469294C4775}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="66.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="18"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="18"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="18"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="18"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="18"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13">
-        <v>2</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="36"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="37"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="5"/>
-      <c r="C25" s="37"/>
-    </row>
-    <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B26" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="37"/>
-    </row>
-    <row r="27" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="38"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="13">
-        <v>3</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="13">
-        <v>4</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B40" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="13">
-        <v>5</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="C24:C27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8630,6 +11547,117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F4CEFA-AC41-4690-BAE8-960DC820EC6C}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="120.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="16">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="30" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="30" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="23" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="256.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7CCC42-89AA-44C3-988B-A74B99D58E9B}">
   <dimension ref="A1:B89"/>
   <sheetViews>
@@ -9048,7 +12076,1078 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E573FB-D72B-4EF1-877D-5ABF37887B99}">
+  <dimension ref="A1:B238"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="135.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="40">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="18" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="18" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="40">
+        <v>2</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B26" s="24" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="24" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="18" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="30" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="19" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B32" s="24" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="B33" s="41" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="18" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="19" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="40">
+        <v>3</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="18" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="24" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="33" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="40">
+        <v>4</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="18" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="18" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="18" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="24" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="23" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="40">
+        <v>5</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="18" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="30" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="30" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="18" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="18" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="24" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="18" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B62" s="24" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="24" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="40">
+        <v>7</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="18" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="18" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="18" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="18" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="18" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="18" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="18" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="18" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="18" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="18" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="19" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="40">
+        <v>8</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B86" s="24" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B87" s="24" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="18" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="19" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="40">
+        <v>9</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="18" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B94" s="24" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="18" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="18" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B97" s="19"/>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="100" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="40">
+        <v>10</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="18" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="18" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="18" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B104" s="19" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="107" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="40">
+        <v>11</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="18" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="18" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="18" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="30" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="18" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B113" s="24" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="30" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="18" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B117" s="19" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="120" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="40">
+        <v>12</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="18" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="18" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="18" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B124" s="24" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="18" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="18"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="30" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="18" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="18" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="18"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B131" s="30" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="18" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133" s="18" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134" s="18"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="30" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="18" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B137" s="18" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="18" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B139" s="18" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B140" s="18"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B141" s="30" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B142" s="18" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="18" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B144" s="18" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B145" s="18"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="30" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B147" s="24" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="18" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B150" s="19" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="153" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="40">
+        <v>13</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B154" s="30" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B155" s="18" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="B156" s="28" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B157" s="28"/>
+    </row>
+    <row r="158" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B158" s="28" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B159" s="18"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B160" s="30" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B161" s="18" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B162" s="24" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B163" s="18" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B164" s="18" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="228" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B165" s="28" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B166" s="18"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B167" s="30" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B168" s="18" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B169" s="18" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="185" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B170" s="19"/>
+    </row>
+    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="173" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="40">
+        <v>14</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B174" s="30" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B175" s="24" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B176" s="18" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B177" s="18" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B178" s="18" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B179" s="18" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B180" s="18" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B181" s="19" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="184" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="40">
+        <v>15</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B185" s="18" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B186" s="24" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B187" s="24" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B188" s="18" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B189" s="19" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="192" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="40">
+        <v>16</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B193" s="18" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B194" s="18" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B195" s="18" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B196" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B197" s="24" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B198" s="30" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B199" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="202" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A202" s="40">
+        <v>17</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B203" s="18" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B204" s="28" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B205" s="18" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B206" s="23" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="209" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="40">
+        <v>18</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B210" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B211" s="18" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B212" s="18" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B213" s="18" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B214" s="18"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B215" s="30" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B216" s="18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B217" s="18" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B218" s="24" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B219" s="28" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B220" s="18" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B221" s="31" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="224" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="40">
+        <v>19</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B225" s="18" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B226" s="24" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B227" s="18"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B228" s="30" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B229" s="18" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B230" s="18" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B231" s="18" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="224" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B232" s="19"/>
+    </row>
+    <row r="234" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="235" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="40">
+        <v>20</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B236" s="18" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B237" s="18" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B238" s="23" t="s">
+        <v>843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DECFAD2-42C6-491B-91E1-2BB880831D61}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -9139,7 +13238,324 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDCCF63-ED9B-43EB-9F18-5027B7DADAE4}">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="116.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="30" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="230.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="19"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>2</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="23" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
+        <v>3</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="180.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>4</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="24" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="18" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="19" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>5</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="18"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="30" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="18" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="19"/>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
+        <v>6</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="18" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="19" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="13">
+        <v>7</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="18" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="18" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="18" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="18" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="18"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="30" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="18" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="18" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="30" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="18" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="30" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="18" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="18" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="18" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B61" s="24" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B62" s="24" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="23" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="13">
+        <v>8</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="18" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="18" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B69" s="24" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="31" t="s">
+        <v>891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B50A56A-D727-4F7B-877A-F95F5D50C0C4}">
   <dimension ref="A1:B98"/>
   <sheetViews>
@@ -9599,341 +14015,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21A6A74-B165-49B1-9B17-2CC5EEE2A4BD}">
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="109.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="16">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="24" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="18"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="18" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="18"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="30" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="18" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="19" t="s">
-        <v>353</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A3E931-BAAF-4FAD-852F-C199231CE5D0}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="105.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="18"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
-        <v>2</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C231497-3272-4EC9-A80A-1F1BA9FDD58E}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="72.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13">
-        <v>1</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AWS_SOLUTION_ARCHITECT_ASSOCIATE_CHEAT_SHEET.xlsx
+++ b/AWS_SOLUTION_ARCHITECT_ASSOCIATE_CHEAT_SHEET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AWS solution architect associate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80334A3-06AD-4001-A0AA-40D76A64A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C1F283-1E18-419C-AF42-EE5624CE1488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="3" r:id="rId1"/>
@@ -18,21 +18,23 @@
     <sheet name="EC2 Instance" sheetId="4" r:id="rId3"/>
     <sheet name="EBS(BeanStalk)" sheetId="19" r:id="rId4"/>
     <sheet name="EC2 Instance Storage" sheetId="9" r:id="rId5"/>
-    <sheet name="S3" sheetId="20" r:id="rId6"/>
-    <sheet name="HA &amp; Scalability" sheetId="11" r:id="rId7"/>
-    <sheet name="Cloud Front" sheetId="21" r:id="rId8"/>
-    <sheet name="Load Balancer" sheetId="12" r:id="rId9"/>
-    <sheet name="ASG(Auto Scaling Group)" sheetId="14" r:id="rId10"/>
-    <sheet name="SSL or TLS" sheetId="13" r:id="rId11"/>
-    <sheet name="AMI" sheetId="10" r:id="rId12"/>
-    <sheet name="Private &amp; Public IP" sheetId="6" r:id="rId13"/>
-    <sheet name="Placement Group" sheetId="7" r:id="rId14"/>
-    <sheet name="Network Interface(NIC or ENI)" sheetId="8" r:id="rId15"/>
-    <sheet name="Security Groups" sheetId="5" r:id="rId16"/>
-    <sheet name="Database" sheetId="16" r:id="rId17"/>
-    <sheet name="Cache" sheetId="17" r:id="rId18"/>
-    <sheet name="Route 53" sheetId="18" r:id="rId19"/>
-    <sheet name="Notes" sheetId="2" r:id="rId20"/>
+    <sheet name="More Storage" sheetId="22" r:id="rId6"/>
+    <sheet name="S3" sheetId="20" r:id="rId7"/>
+    <sheet name="HA &amp; Scalability" sheetId="11" r:id="rId8"/>
+    <sheet name="Cloud Front" sheetId="21" r:id="rId9"/>
+    <sheet name="Load Balancer" sheetId="12" r:id="rId10"/>
+    <sheet name="ASG(Auto Scaling Group)" sheetId="14" r:id="rId11"/>
+    <sheet name="SSL or TLS" sheetId="13" r:id="rId12"/>
+    <sheet name="AMI" sheetId="10" r:id="rId13"/>
+    <sheet name="Private &amp; Public IP" sheetId="6" r:id="rId14"/>
+    <sheet name="Placement Group" sheetId="7" r:id="rId15"/>
+    <sheet name="Network Interface(NIC or ENI)" sheetId="8" r:id="rId16"/>
+    <sheet name="Security Groups" sheetId="5" r:id="rId17"/>
+    <sheet name="Database" sheetId="16" r:id="rId18"/>
+    <sheet name="Cache" sheetId="17" r:id="rId19"/>
+    <sheet name="Route 53" sheetId="18" r:id="rId20"/>
+    <sheet name="Messaging(SQS,SNS,Kinesis)" sheetId="23" r:id="rId21"/>
+    <sheet name="Notes" sheetId="2" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1229">
   <si>
     <t>Infrastructure URL</t>
   </si>
@@ -6767,6 +6769,1715 @@
   Good for HTTP use cases that require static IP addresses
   Good for HTTP use cases that required deterministic, fast regional failover</t>
     </r>
+  </si>
+  <si>
+    <t>AWS Snow Family</t>
+  </si>
+  <si>
+    <t>Highly-secure, portable devices to collect and process data at the edge, and migrate data into and out of AWS</t>
+  </si>
+  <si>
+    <t>Data migration:
+     Snowcone
+     Snowball Edge
+     Snowmobile</t>
+  </si>
+  <si>
+    <t>Edge computing:
+     Snowcone
+     Snowball Edge</t>
+  </si>
+  <si>
+    <t>Challenges of Data Migrations over network</t>
+  </si>
+  <si>
+    <t>Limited connectivity</t>
+  </si>
+  <si>
+    <t>Limited bandwidth</t>
+  </si>
+  <si>
+    <t>High network cost</t>
+  </si>
+  <si>
+    <t>Shared bandwidth (can’t maximize the line)</t>
+  </si>
+  <si>
+    <t>Connection stability</t>
+  </si>
+  <si>
+    <t>AWS Snow Family: offline devices to perform data migrations
+      If it takes more than a week to transfer over the network, use Snowball devices!</t>
+  </si>
+  <si>
+    <t>Snowball Edge</t>
+  </si>
+  <si>
+    <t>Physical data transport solution: move TBs or PBs of data in or out of AWS</t>
+  </si>
+  <si>
+    <t>Alternative to moving data over the network (and paying network fees)</t>
+  </si>
+  <si>
+    <t>Pay per data transfer job</t>
+  </si>
+  <si>
+    <t>Provide block storage and Amazon S3 -compatible object storage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Snowball Edge Storage Optimized
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      80 TB of HDD capacity for block volume and S3 compatible object storage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Snowball Edge Compute Optimized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     42 TB of HDD or 28TB NVMe capacity for block volume and S3 compatible object storage</t>
+    </r>
+  </si>
+  <si>
+    <t>Use cases: large data cloud migrations, DC decommission, disaster recovery</t>
+  </si>
+  <si>
+    <t>AWS Snowcone &amp; Snowcone SSD</t>
+  </si>
+  <si>
+    <t>Small, portable computing, anywhere, rugged &amp; secure, withstands harsh environments</t>
+  </si>
+  <si>
+    <t>Light (4.5 pounds, 2.1 kg)</t>
+  </si>
+  <si>
+    <t>Device used for edge computing, storage, and data transfer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Snowcone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – 8 TB of HDD Storage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Snowcone SSD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – 14 TB of SSD Storage</t>
+    </r>
+  </si>
+  <si>
+    <t>Use Snowcone where Snowball does not fit (space - constrained environment)</t>
+  </si>
+  <si>
+    <t>Must provide your own battery / cables</t>
+  </si>
+  <si>
+    <t>Can be sent back to AWS offline, or connect it to internet and use AWS DataSync to send data</t>
+  </si>
+  <si>
+    <t>Snowmobile</t>
+  </si>
+  <si>
+    <t>Transfer exabytes of data (1 EB = 1,000 PB = 1,000,000 TBs)</t>
+  </si>
+  <si>
+    <t>Each Snowmobile has 100 PB of capacity (use multiple in parallel)</t>
+  </si>
+  <si>
+    <t>High security: temperature controlled, GPS, 24/7 video surveillance</t>
+  </si>
+  <si>
+    <t>Better than Snowball if you transfer more than 10 PB</t>
+  </si>
+  <si>
+    <t>Usage Process</t>
+  </si>
+  <si>
+    <t>Request Snowball devices from the AWS console for delivery</t>
+  </si>
+  <si>
+    <t>Install the snowball client / AWS OpsHub on your servers</t>
+  </si>
+  <si>
+    <t>Connect the snowball to your servers and copy files using the client</t>
+  </si>
+  <si>
+    <t>Ship back the device when you’re done (goes to the right AWS facility)</t>
+  </si>
+  <si>
+    <t>Data will be loaded into an S3 bucket</t>
+  </si>
+  <si>
+    <t>Snowball is completely wiped</t>
+  </si>
+  <si>
+    <t>Edge Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process data while it’s being created on an edge location
+    A truck on the road, a ship on the sea, a mining station underground... </t>
+  </si>
+  <si>
+    <t>These locations may have
+      Limited / no internet access
+      Limited / no easy access to computing power</t>
+  </si>
+  <si>
+    <t>We setup a Snowball Edge / Snowcone device to do edge computing</t>
+  </si>
+  <si>
+    <t>Use cases of Edge Computing:
+     Preprocess data
+     Machine learning at the edge
+     Transcoding media streams</t>
+  </si>
+  <si>
+    <t>Eventually (if need be) we can ship back the device to AWS (for transferring data for example)</t>
+  </si>
+  <si>
+    <t>Snowcone &amp; Snowcone SSD (smaller)</t>
+  </si>
+  <si>
+    <t>2 CPUs, 4 GB of memory, wired or wireless access
+USB-C power using a cord or the optional battery</t>
+  </si>
+  <si>
+    <t>Snowball Edge – Compute Optimized</t>
+  </si>
+  <si>
+    <t>104 vCPUs, 416 GiB of RAM
+Optional GPU (useful for video processing or machine learning)
+28TB NVMe or 42TB HDD usable storage
+Storage Clustering available (up to 16 nodes)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Snowball Edge – Storage Optimized
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Up to 40 vCPUs, 80 GiB of RAM, 80 TB storage</t>
+    </r>
+  </si>
+  <si>
+    <t>All: Can run EC2 Instances &amp; AWS Lambda functions (using AWS IoT Greengrass)</t>
+  </si>
+  <si>
+    <t>Long-term deployment options: 1 and 3 years discounted pricing</t>
+  </si>
+  <si>
+    <t>OpsHub</t>
+  </si>
+  <si>
+    <t>Historically, to use Snow Family devices, you needed a CLI (Command Line Interface tool)</t>
+  </si>
+  <si>
+    <t>Today, you can use AWS OpsHub (a software you install on your computer / laptop) to manage your Snow Family Device
+  Unlocking and configuring single or clustered devices
+  Transferring files
+  Launching and managing instances running on Snow Family Devices
+  Monitor device metrics (storage capacity, active instances on your device)
+  Launch compatible AWS services on your devices(ex: Amazon EC2 instances, AWS DataSync, Network File System (NFS))</t>
+  </si>
+  <si>
+    <t>Snowball into Glacier</t>
+  </si>
+  <si>
+    <t>Snowball cannot import to Glacier directly</t>
+  </si>
+  <si>
+    <t>You must use Amazon S3 first, in combination with an S3 lifecycle policy</t>
+  </si>
+  <si>
+    <t>FSx</t>
+  </si>
+  <si>
+    <t>Launch 3rd party high-performance file systems on AWS</t>
+  </si>
+  <si>
+    <t>Fully managed service</t>
+  </si>
+  <si>
+    <t>FSx for Lustre</t>
+  </si>
+  <si>
+    <t>FSx for Windows File Server</t>
+  </si>
+  <si>
+    <t>FSx for NetApp ONTAP</t>
+  </si>
+  <si>
+    <t>FSx for OpenZFS</t>
+  </si>
+  <si>
+    <t>FSx for Windows (File Server)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FSx for Windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a fully managed Windows file system share drive</t>
+    </r>
+  </si>
+  <si>
+    <t>Supports SMB protocol &amp; Windows NTFS</t>
+  </si>
+  <si>
+    <t>Microsoft Active Directory integration, ACLs, user quotas</t>
+  </si>
+  <si>
+    <t>Can be mounted on Linux EC2 instances</t>
+  </si>
+  <si>
+    <t>Supports Microsoft's Distributed File System (DFS) Namespaces (group files across multiple FS)</t>
+  </si>
+  <si>
+    <t>Scale up to 10s of GB/s, millions of IOPS, 100s PB of data</t>
+  </si>
+  <si>
+    <t>Storage Options:
+   SSD – latency sensitive workloads (databases, media processing, data analytics, …)
+   HDD – broad spectrum of workloads (home directory, CMS, …)</t>
+  </si>
+  <si>
+    <t>Can be accessed from your on-premises infrastructure (VPN or Direct Connect)</t>
+  </si>
+  <si>
+    <t>Can be configured to be Multi-AZ (high availability)</t>
+  </si>
+  <si>
+    <t>Data is backed-up daily to S3</t>
+  </si>
+  <si>
+    <t>Amazon FSx for Lustre</t>
+  </si>
+  <si>
+    <t>Lustre is a type of parallel distributed file system, for large-scale computing</t>
+  </si>
+  <si>
+    <t>The name Lustre is derived from “Linux” and “cluster</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Machine Learning, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>High Performance Computing (HPC)</t>
+    </r>
+  </si>
+  <si>
+    <t>Video Processing, Financial Modeling, Electronic Design Automation</t>
+  </si>
+  <si>
+    <t>Scales up to 100s GB/s, millions of IOPS, sub-ms latencies</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Storage Options:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  SSD – low-latency, IOPS intensive workloads, small &amp; random file operations
+  HDD – throughput-intensive workloads, large &amp; sequential file operations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Seamless integration with S3
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can “read S3” as a file system (through FSx)
+  Can write the output of the computations back to S3 (through FSx)</t>
+    </r>
+  </si>
+  <si>
+    <t>Can be used from on-premises servers (VPN or Direct Connect)</t>
+  </si>
+  <si>
+    <t>File System Deployment Options</t>
+  </si>
+  <si>
+    <t>Scratch File System
+  Temporary storage
+  Data is not replicated (doesn’t persist if file server fails)
+  High burst (6x faster, 200MBps per TiB)
+  Usage: short-term processing, optimize costs</t>
+  </si>
+  <si>
+    <t>Persistent File System
+  Long-term storage
+  Data is replicated within same AZ
+  Replace failed files within minutes
+  Usage: long-term processing, sensitive data</t>
+  </si>
+  <si>
+    <t>NetApp ONTAP</t>
+  </si>
+  <si>
+    <t>Managed NetApp ONTAP on AWS</t>
+  </si>
+  <si>
+    <t>File System compatible with NFS, SMB, iSCSI protocol</t>
+  </si>
+  <si>
+    <t>Move workloads running on ONTAP or NAS to AWS</t>
+  </si>
+  <si>
+    <t>Works with:
+  Linux
+  Windows
+  MacOS
+  VMware Cloud on AWS
+  Amazon Workspaces &amp; AppStream 2.0
+  Amazon EC2, ECS and EKS</t>
+  </si>
+  <si>
+    <t>Storage shrinks or grows automatically</t>
+  </si>
+  <si>
+    <t>Snapshots, replication, low-cost, compression and data de-duplication</t>
+  </si>
+  <si>
+    <t>Point-in-time instantaneous cloning (helpful for testing new workloads)</t>
+  </si>
+  <si>
+    <t>Managed OpenZFS file system on AWS</t>
+  </si>
+  <si>
+    <t>File System compatible with NFS (v3, v4, v4.1, v4.2)</t>
+  </si>
+  <si>
+    <t>Move workloads running on ZFS to AWS</t>
+  </si>
+  <si>
+    <t>Up to 1,000,000 IOPS with &lt; 0.5ms latency</t>
+  </si>
+  <si>
+    <t>Snapshots, compression and low-cost</t>
+  </si>
+  <si>
+    <t>Hybrid Cloud for Storage</t>
+  </si>
+  <si>
+    <t>AWS is pushing for ”hybrid cloud”
+  Part of your infrastructure is on the cloud 
+  Part of your infrastructure is on-premises</t>
+  </si>
+  <si>
+    <t>This can be due to
+  Long cloud migrations
+  Security requirements
+  Compliance requirements
+  IT strategy</t>
+  </si>
+  <si>
+    <t>S3 is a proprietary storage technology (unlike EFS / NFS), so how do you expose the S3 data on-premises?</t>
+  </si>
+  <si>
+    <t>AWS Storage Gateway</t>
+  </si>
+  <si>
+    <t>Storage Gateway</t>
+  </si>
+  <si>
+    <t>Bridge between on-premises data and cloud data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use cases:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  disaster recovery
+  backup &amp; restore
+  tiered storage
+  on-premises cache &amp; low-latency files access</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Types of Storage Gateway:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  S3 File Gateway
+  FSx File Gateway
+  Volume Gateway
+  Tape Gateway</t>
+    </r>
+  </si>
+  <si>
+    <t>S3 File Gateway</t>
+  </si>
+  <si>
+    <t>Configured S3 buckets are accessible using the NFS and SMB protocol</t>
+  </si>
+  <si>
+    <t>Most recently used data is cached in the file gateway</t>
+  </si>
+  <si>
+    <t>Supports S3 Standard, S3 Standard IA, S3 One Zone A, S3 Intelligent Tiering</t>
+  </si>
+  <si>
+    <t>Transition to S3 Glacier using a Lifecycle Policy</t>
+  </si>
+  <si>
+    <t>Bucket access using IAM roles for each File Gateway</t>
+  </si>
+  <si>
+    <t>SMB Protocol has integration with Active Directory (AD) for user authentication</t>
+  </si>
+  <si>
+    <t>FSx File Gateway</t>
+  </si>
+  <si>
+    <t>Native access to Amazon FSx for Windows File Server</t>
+  </si>
+  <si>
+    <t>Local cache for frequently accessed data</t>
+  </si>
+  <si>
+    <t>Windows native compatibility (SMB, NTFS, Active Directory...)</t>
+  </si>
+  <si>
+    <t>Useful for group file shares and home directories</t>
+  </si>
+  <si>
+    <t>Volume Gateway</t>
+  </si>
+  <si>
+    <t>Block storage using iSCSI protocol backed by S3</t>
+  </si>
+  <si>
+    <t>Backed by EBS snapshots which can help restore on-premises volumes!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cached volumes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> low latency access to most recent data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stored volumes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> entire dataset is on premise, scheduled backups to S3</t>
+    </r>
+  </si>
+  <si>
+    <t>Tape Gateway</t>
+  </si>
+  <si>
+    <t>Some companies have backup processes using physical tapes (!)</t>
+  </si>
+  <si>
+    <t>With Tape Gateway, companies use the same processes but, in the cloud</t>
+  </si>
+  <si>
+    <t>Virtual Tape Library (VTL) backed by Amazon S3 and Glacier</t>
+  </si>
+  <si>
+    <t>Back up data using existing tape-based processes (and iSCSI interface)</t>
+  </si>
+  <si>
+    <t>Works with leading backup software vendors</t>
+  </si>
+  <si>
+    <t>Storage Gateway – Hardware appliance</t>
+  </si>
+  <si>
+    <t>Using Storage Gateway means you need on-premises virtualization</t>
+  </si>
+  <si>
+    <t>Otherwise, you can use a Storage Gateway Hardware Appliance</t>
+  </si>
+  <si>
+    <t>You can buy it on amazon.com</t>
+  </si>
+  <si>
+    <t>Works with File Gateway, Volume Gateway, Tape Gateway</t>
+  </si>
+  <si>
+    <t>Has the required CPU, memory, network, SSD cache resources</t>
+  </si>
+  <si>
+    <t>Helpful for daily NFS backups in small data centers</t>
+  </si>
+  <si>
+    <t>Transfer Family</t>
+  </si>
+  <si>
+    <t>A fully-managed service for file transfers into and out of Amazon S3 or Amazon EFS using the FTP protocol</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supported Protocols
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS Transfer for FTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (File Transfer Protocol (FTP))
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS Transfer for FTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (File Transfer Protocol over SSL (FTPS))
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS Transfer for SFTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Secure File Transfer Protocol (SFTP))</t>
+    </r>
+  </si>
+  <si>
+    <t>Managed infrastructure, Scalable, Reliable, Highly Available (multi-AZ)</t>
+  </si>
+  <si>
+    <t>Pay per provisioned endpoint per hour + data transfers in GB</t>
+  </si>
+  <si>
+    <t>Store and manage users’ credentials within the service</t>
+  </si>
+  <si>
+    <t>Integrate with existing authentication systems (Microsoft Active Directory, LDAP, Okta, Amazon Cognito, custom)</t>
+  </si>
+  <si>
+    <t>Usage: sharing files, public datasets, CRM, ERP, …</t>
+  </si>
+  <si>
+    <t>DataSync</t>
+  </si>
+  <si>
+    <t>Move large amount of data to and from</t>
+  </si>
+  <si>
+    <t>On-premises / other cloud to AWS (NFS, SMB, HDFS, S3 API…) – needs agent</t>
+  </si>
+  <si>
+    <t>AWS to AWS (different storage services) – no agent needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can synchronize to:
+  Amazon S3 (any storage classes – including Glacier)
+  Amazon EFS
+  Amazon FSx (Windows, Lustre, NetApp, OpenZFS...) </t>
+  </si>
+  <si>
+    <t>Replication tasks can be scheduled hourly, daily, weekly</t>
+  </si>
+  <si>
+    <t>File permissions and metadata are preserved (NFS POSIX, SMB…)</t>
+  </si>
+  <si>
+    <t>One agent task can use 10 Gbps, can setup a bandwidth limit</t>
+  </si>
+  <si>
+    <t>AWS Integration &amp; Messaging</t>
+  </si>
+  <si>
+    <t>When we start deploying multiple applications, they will inevitably need to communicate with one another</t>
+  </si>
+  <si>
+    <t>There are two patterns of application communication
+1) Synchronous communications(application to application)
+2) Asynchronous / Event based(application to queue to application)</t>
+  </si>
+  <si>
+    <t>Synchronous between applications can be problematic if there are sudden spikes of traffic</t>
+  </si>
+  <si>
+    <t>What if you need to suddenly encode 1000 videos but usually it’s 10?</t>
+  </si>
+  <si>
+    <t>In that case, it’s better to decouple your applications
+  using SQS: queue model
+  using SNS: pub/sub model
+  using Kinesis: real-time streaming model</t>
+  </si>
+  <si>
+    <t>These services can scale independently from our application</t>
+  </si>
+  <si>
+    <t>SQS</t>
+  </si>
+  <si>
+    <t>SQS(Simple Queue Service)</t>
+  </si>
+  <si>
+    <t>Fully managed service, used to decouple applications</t>
+  </si>
+  <si>
+    <t>Unlimited throughput, unlimited number of messages in queue</t>
+  </si>
+  <si>
+    <t>Default retention of messages: 4 days, maximum of 14 days</t>
+  </si>
+  <si>
+    <t>Low latency (&lt;10 ms on publish and receive)</t>
+  </si>
+  <si>
+    <t>Limitation of 256KB per message sent</t>
+  </si>
+  <si>
+    <t>Can have duplicate messages (at least once delivery, occasionally)</t>
+  </si>
+  <si>
+    <t>Can have out of order messages (best effort ordering)</t>
+  </si>
+  <si>
+    <t>Producing Messages</t>
+  </si>
+  <si>
+    <t>Produced to SQS using the SDK (SendMessage API)</t>
+  </si>
+  <si>
+    <t>The message is persisted in SQS until a consumer deletes it</t>
+  </si>
+  <si>
+    <t>Message retention: default 4 days, up to 14 days</t>
+  </si>
+  <si>
+    <t>SQS standard: unlimited throughput</t>
+  </si>
+  <si>
+    <t>Consuming Messages</t>
+  </si>
+  <si>
+    <t>Consumers (running on EC2 instances, servers, or AWS Lambda)</t>
+  </si>
+  <si>
+    <t>Process the messages (example: insert the message into an RDS database)</t>
+  </si>
+  <si>
+    <t>Poll SQS for messages (receive up to 10 messages at a time)</t>
+  </si>
+  <si>
+    <t>Delete the messages using the DeleteMessage API</t>
+  </si>
+  <si>
+    <t>Multiple EC2 Instances Consumers</t>
+  </si>
+  <si>
+    <t>Consumers receive and process messages in parallel</t>
+  </si>
+  <si>
+    <t>At least once delivery</t>
+  </si>
+  <si>
+    <t>Best-effort message ordering</t>
+  </si>
+  <si>
+    <t>Consumers delete messages after processing them</t>
+  </si>
+  <si>
+    <t>We can scale consumers horizontally to improve throughput of processing</t>
+  </si>
+  <si>
+    <t>SQS with Auto Scaling Group (ASG)</t>
+  </si>
+  <si>
+    <t>SQS - Security</t>
+  </si>
+  <si>
+    <t>In-flight encryption using HTTPS API</t>
+  </si>
+  <si>
+    <t>At-rest encryption using KMS keys</t>
+  </si>
+  <si>
+    <t>Client-side encryption if the client wants to perform encryption/decryption itself</t>
+  </si>
+  <si>
+    <t>Access Controls</t>
+  </si>
+  <si>
+    <t>IAM policies to regulate access to the SQS API</t>
+  </si>
+  <si>
+    <t>SQS Access Policies (similar to S3 bucket policies)</t>
+  </si>
+  <si>
+    <t>Useful for cross-account access to SQS queues</t>
+  </si>
+  <si>
+    <t>Useful for allowing other services (SNS, S3…) to write to an SQS queue</t>
+  </si>
+  <si>
+    <t>Message Visibility Timeout</t>
+  </si>
+  <si>
+    <t>After a message is polled by a consumer, it becomes invisible to other consumers</t>
+  </si>
+  <si>
+    <t>By default, the “message visibility timeout” is 30 seconds</t>
+  </si>
+  <si>
+    <t>That means the message has 30 seconds to be processed</t>
+  </si>
+  <si>
+    <t>After the message visibility timeout is over, the message is “visible” in SQS</t>
+  </si>
+  <si>
+    <t>If a message is not processed within the visibility timeout, it will be processed twice</t>
+  </si>
+  <si>
+    <t>A consumer could call the ChangeMessageVisibility API to get more time</t>
+  </si>
+  <si>
+    <t>If visibility timeout is high (hours), and consumer crashes, re-processing will take time</t>
+  </si>
+  <si>
+    <t>If visibility timeout is too low (seconds), we may get duplicates</t>
+  </si>
+  <si>
+    <t>Long Polling</t>
+  </si>
+  <si>
+    <t>When a consumer requests messages from the queue, it can optionally “wait” for messages to arrive if there are none in the queue</t>
+  </si>
+  <si>
+    <t>This is called Long Polling</t>
+  </si>
+  <si>
+    <t>LongPolling decreases the number of API calls made to SQS while increasing the efficiency and reducing latency of your application</t>
+  </si>
+  <si>
+    <t>The wait time can be between 1 sec to 20 sec (20 sec preferable)</t>
+  </si>
+  <si>
+    <t>Long Polling is preferable to Short Polling</t>
+  </si>
+  <si>
+    <t>Long polling can be enabled at the queue level or at the API level using WaitTimeSeconds</t>
+  </si>
+  <si>
+    <t>SQS – FIFO Queue</t>
+  </si>
+  <si>
+    <t>FIFO = First In First Out (ordering of messages in the queue)</t>
+  </si>
+  <si>
+    <t>Limited throughput: 300 msg/s without batching, 3000 msg/s with</t>
+  </si>
+  <si>
+    <t>Exactly-once send capability (by removing duplicates)</t>
+  </si>
+  <si>
+    <t>Messages are processed in order by the consumer</t>
+  </si>
+  <si>
+    <t>SQS as a buffer to database writes</t>
+  </si>
+  <si>
+    <t>SQS to decouple between application tiers</t>
+  </si>
+  <si>
+    <t>Amazon SNS</t>
+  </si>
+  <si>
+    <t>What if you want to send one message to many receivers?</t>
+  </si>
+  <si>
+    <t>The “event producer” only sends message to one SNS topic</t>
+  </si>
+  <si>
+    <t>As many “event receivers” (subscriptions) as we want to listen to the SNS topic notifications</t>
+  </si>
+  <si>
+    <t>Each subscriber to the topic will get all the messages (note: new feature to filter messages)</t>
+  </si>
+  <si>
+    <t>Up to 12,500,000 subscriptions per topic</t>
+  </si>
+  <si>
+    <t>100,000 topics limit</t>
+  </si>
+  <si>
+    <t>Subscribers</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Kinesis Data Firehose</t>
+  </si>
+  <si>
+    <t>Emails</t>
+  </si>
+  <si>
+    <t>SMS &amp; Mobile Notifications</t>
+  </si>
+  <si>
+    <t>HTTP(S) Endpoints</t>
+  </si>
+  <si>
+    <t>AWS services can send data directly to SNS</t>
+  </si>
+  <si>
+    <t>CloudWatch Alarms</t>
+  </si>
+  <si>
+    <t>AWS Budgets</t>
+  </si>
+  <si>
+    <t>Auto Scaling Group (Notifications)</t>
+  </si>
+  <si>
+    <t>S3 Bucket (Events)</t>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+  </si>
+  <si>
+    <t>CloudFormation (State Changes)</t>
+  </si>
+  <si>
+    <t>AWS DMS (New Replic)</t>
+  </si>
+  <si>
+    <t>RDS Events</t>
+  </si>
+  <si>
+    <t>How to publish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic Publish (using the SDK)
+  Create a topic
+  Create a subscription (or many)
+  Publish to the topic
+  </t>
+  </si>
+  <si>
+    <t>Direct Publish (for mobile apps SDK)
+  Create a platform application
+  Create a platform endpoint
+  Publish to the platform endpoint
+  Works with Google GCM, Apple APNS, Amazon ADM</t>
+  </si>
+  <si>
+    <t>SNS – Security</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Access Controls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: IAM policies to regulate access to the SNS API</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNS Access Policies
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Useful for cross-account access to SNS topics
+   Useful for allowing other services ( S3…) to write to an SNS topic</t>
+    </r>
+  </si>
+  <si>
+    <t>SNS + SQS: Fan Out</t>
+  </si>
+  <si>
+    <t>Push once in SNS, receive in all SQS queues that are subscribers</t>
+  </si>
+  <si>
+    <t>Fully decoupled, no data loss</t>
+  </si>
+  <si>
+    <t>SQS allows for: data persistence, delayed processing and retries of work</t>
+  </si>
+  <si>
+    <t>Ability to add more SQS subscribers over time</t>
+  </si>
+  <si>
+    <t>Make sure your SQS queue access policy allows for SNS to write</t>
+  </si>
+  <si>
+    <t>Cross-Region Delivery: works with SQS Queues in other regions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNS to Amazon S3 through Kinesis Data Firehose
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SNS can send to Kinesis and therefore we can have the following solutions architecture</t>
+    </r>
+  </si>
+  <si>
+    <t>SNS – FIFO Topic</t>
+  </si>
+  <si>
+    <t>FIFO = First In First Out (ordering of messages in the topic)</t>
+  </si>
+  <si>
+    <t>Similar features as SQS FIFO</t>
+  </si>
+  <si>
+    <t>Ordering by Message Group ID (all messages in the same group are ordered)</t>
+  </si>
+  <si>
+    <t>Deduplication using a Deduplication ID or Content Based Deduplication</t>
+  </si>
+  <si>
+    <t>Can only have SQS FIFO queues as subscribers</t>
+  </si>
+  <si>
+    <t>Limited throughput (same throughput as SQS FIFO)</t>
+  </si>
+  <si>
+    <t>Message Filtering</t>
+  </si>
+  <si>
+    <t>JSON policy used to filter messages sent to SNS topic’s subscriptions</t>
+  </si>
+  <si>
+    <t>If a subscription doesn’t have a filter policy, it receives every message</t>
+  </si>
+  <si>
+    <t>Kinesis Overview</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Makes it easy to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collect, process, and analyze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> streaming data in real-time</t>
+    </r>
+  </si>
+  <si>
+    <t>Ingest real-time data such as: Application logs, Metrics, Website clickstreams, IoT telemetry data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kinesis Data Streams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: capture, process, and store data streams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kinesis Data Firehose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: load data streams into AWS data stores</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kinesis Data Analytics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: analyze data streams with SQL or Apache Flink</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kinesis Video Streams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: capture, process, and store video streams</t>
+    </r>
+  </si>
+  <si>
+    <t>Kinesis Data Streams</t>
+  </si>
+  <si>
+    <t>Retention between 1 day to 365 days</t>
+  </si>
+  <si>
+    <t>Ability to reprocess (replay) data</t>
+  </si>
+  <si>
+    <t>Once data is inserted in Kinesis, it can’t be deleted (immutability)</t>
+  </si>
+  <si>
+    <t>Producers: AWS SDK, Kinesis Producer Library (KPL), Kinesis Agent</t>
+  </si>
+  <si>
+    <t>Consumers:
+  Write your own: Kinesis Client Library (KCL), AWS SDK
+  Managed: AWS Lambda, Kinesis Data Firehose, Kinesis Data Analytics,</t>
+  </si>
+  <si>
+    <t>Data that shares the same partition key goes to the same shard (ordering)</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Capacity Modes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provisioned mode:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   You choose the number of shards provisioned, scale manually or using API
+   Each shard gets 1MB/s in (or 1000 records per second)
+   Each shard gets 2MB/s out (classic or enhanced fan-out consumer)
+   You pay per shard provisioned per hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On-demand mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+   No need to provision or manage the capacity
+   Default capacity provisioned (4 MB/s in or 4000 records per second)
+   Scales automatically based on observed throughput peak during the last 30 days
+   Pay per stream per hour &amp; data in/out per GB</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Streams Security</t>
+  </si>
+  <si>
+    <t>Control access / authorization using IAM policies</t>
+  </si>
+  <si>
+    <t>Encryption in flight using HTTPS endpoints</t>
+  </si>
+  <si>
+    <t>You can implement encryption/decryption of data on client side (harder)</t>
+  </si>
+  <si>
+    <t>VPC Endpoints available for Kinesis to access within VPC</t>
+  </si>
+  <si>
+    <t>Monitor API calls using CloudTrail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fully Managed Service, no administration, automatic scaling, serverless
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AWS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Redshift / Amazon S3 / OpenSearch
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3rd party partner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Splunk / MongoDB / DataDog / NewRelic /
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Custom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: send to any HTTP endpoint</t>
+    </r>
+  </si>
+  <si>
+    <t>Pay for data going through Firehose</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Near Real Time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   60 seconds latency minimum for non full batches
+   Or minimum 1 MB of data at a time</t>
+    </r>
+  </si>
+  <si>
+    <t>Supports many data formats, conversions, transformations, compression</t>
+  </si>
+  <si>
+    <t>Supports custom data transformations using AWS Lambda</t>
+  </si>
+  <si>
+    <t>Can send failed or all data to a backup S3 bucket</t>
+  </si>
+  <si>
+    <t>Kinesis Data Streams vs Firehose</t>
+  </si>
+  <si>
+    <t>Streaming service for ingest at scale</t>
+  </si>
+  <si>
+    <t>Write custom code (producer / consumer)</t>
+  </si>
+  <si>
+    <t>Real-time (~200 ms)</t>
+  </si>
+  <si>
+    <t>Manage scaling (shard splitting / merging)</t>
+  </si>
+  <si>
+    <t>Data storage for 1 to 365 days</t>
+  </si>
+  <si>
+    <t>Supports replay capability</t>
+  </si>
+  <si>
+    <t>Load streaming data into S3 / Redshift / OpenSearch / 3rd party / custom HTTP</t>
+  </si>
+  <si>
+    <t>Fully managed</t>
+  </si>
+  <si>
+    <t>Near real-time (buffer time min. 60 sec)</t>
+  </si>
+  <si>
+    <t>Automatic scaling</t>
+  </si>
+  <si>
+    <t>No data storage</t>
+  </si>
+  <si>
+    <t>Doesn’t support replay capability</t>
+  </si>
+  <si>
+    <t>Ordering data into Kinesis</t>
+  </si>
+  <si>
+    <t>Imagine you have 100 trucks (truck_1, truck_2, … truck_100) on the road sending their GPS positions regularly into AWS.</t>
+  </si>
+  <si>
+    <t>You want to consume the data in order for each truck, so that you can track their movement accurately</t>
+  </si>
+  <si>
+    <t>How should you send that data into Kinesis?</t>
+  </si>
+  <si>
+    <t>Answer: send using a “Partition Key” value of the “truck_id”</t>
+  </si>
+  <si>
+    <t>The same key will always go to the same shard</t>
+  </si>
+  <si>
+    <t>Ordering data into SQS</t>
+  </si>
+  <si>
+    <t>For SQS standard, there is no ordering</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For SQS FIFO, if you don’t use a Group ID, messages are consumed in the order they are sent, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with only one consumer</t>
+    </r>
+  </si>
+  <si>
+    <t>You want to scale the number of consumers, but you want messages to be “grouped” when they are related to each other</t>
+  </si>
+  <si>
+    <t>Then you use a Group ID (similar to Partition Key in Kinesis)</t>
+  </si>
+  <si>
+    <t>Kinesis vs SQS ordering</t>
+  </si>
+  <si>
+    <t>Let’s assume 100 trucks, 5 kinesis shards, 1 SQS FIFO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kinesis Data Streams:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  On average you’ll have 20 trucks per shard
+  Trucks will have their data ordered within each shard
+  The maximum amount of consumers in parallel we can have is 5
+  Can receive up to 5 MB/s of data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SQS FIFO
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You only have one SQS FIFO queue
+  You will have 100 Group ID
+  You can have up to 100 Consumers (due to the 100 Group ID)
+  You have up to 300 messages per second (or 3000 if using batching)</t>
+    </r>
+  </si>
+  <si>
+    <t>SQS vs SNS vs Kinesis</t>
+  </si>
+  <si>
+    <t>Amazon MQ</t>
+  </si>
+  <si>
+    <t>SQS, SNS are “cloud-native” services: proprietary protocols from AWS</t>
+  </si>
+  <si>
+    <t>Traditional applications running from on-premises may use open protocols such as: MQTT, AMQP, STOMP, Openwire, WSS</t>
+  </si>
+  <si>
+    <t>When migrating to the cloud, instead of re-engineering the application to use SQS and SNS, we can use Amazon MQ</t>
+  </si>
+  <si>
+    <t>Amazon MQ is a managed message broker service for Rabbit MQ and Active MQ</t>
+  </si>
+  <si>
+    <t>Amazon MQ doesn’t “scale” as much as SQS / SNS</t>
+  </si>
+  <si>
+    <t>Amazon MQ runs on servers, can run in Multi-AZ with failover</t>
+  </si>
+  <si>
+    <t>Amazon MQ has both queue feature (~SQS) and topic features (~SNS)</t>
+  </si>
+  <si>
+    <t>MQ – High Availability</t>
   </si>
 </sst>
 </file>
@@ -6980,7 +8691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7051,6 +8762,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7069,12 +8786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7131,6 +8843,412 @@
         <a:xfrm>
           <a:off x="5257800" y="4260850"/>
           <a:ext cx="2597150" cy="2584450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3771900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1416151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ACC1D7D-F5E3-5886-2D8F-48D367CF7575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="4495800"/>
+          <a:ext cx="3733800" cy="1371701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7480300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3974753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DD2B2E-62FE-B9C4-A110-352C4E2FB503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654050" y="5892800"/>
+          <a:ext cx="7435850" cy="3974753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6070600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>3151958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6622F4BF-DF86-8912-240B-AA2E39073A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679450" y="15510431"/>
+          <a:ext cx="6000750" cy="3141877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7359651</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1703217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955A94CD-686A-06EE-1736-009E227EF062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673101" y="6343650"/>
+          <a:ext cx="7296150" cy="1652417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4495800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2098864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06291D8-27CB-7C34-8A65-2F9B02ED6BB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660401" y="9798050"/>
+          <a:ext cx="4444999" cy="2060764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5200650</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1864721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1AD7E2-50A8-591E-EF2B-A01F96307E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="641350" y="30524450"/>
+          <a:ext cx="5168900" cy="1832971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5168900</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>2358107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C24E12-9C13-9439-AAB1-6F604FFB7D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654050" y="38449251"/>
+          <a:ext cx="5124450" cy="2320006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5962650</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>2538830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286DC6C1-F0BC-B8BB-4F7E-07FC9ABE3D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622301" y="56426101"/>
+          <a:ext cx="5949949" cy="2538829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4127500</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>2090885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA63D80-6B5F-40C3-6BC0-B1045B613521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723901" y="61163201"/>
+          <a:ext cx="4013199" cy="2014684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7378,6 +9496,275 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2432051</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1091268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA7BA71-FE1D-AD27-86B6-225CFD195B6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="641351" y="2984500"/>
+          <a:ext cx="2400300" cy="1065868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3886200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1788948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEBBFE5-F070-1DAC-C28E-F08D0A87F070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673101" y="4724401"/>
+          <a:ext cx="3822699" cy="1712747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6496051</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>3006463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E014E156-0106-C716-3A33-B582027BD891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647701" y="48964851"/>
+          <a:ext cx="6457950" cy="2923912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6375400</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>2990345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B114A5A-D469-B5A2-33E7-3433B4211971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="54444900"/>
+          <a:ext cx="6311900" cy="2945895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44451</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5264151</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>2414286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58AD7B6-90D7-E2A3-A320-597EC188F111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="654051" y="59963050"/>
+          <a:ext cx="5219700" cy="2363486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>63502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5359400</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>2608363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2345576-A0C3-D111-912A-080FDF8443DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704851" y="62731652"/>
+          <a:ext cx="5264149" cy="2544861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7734,7 +10121,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7915,7 +10302,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7964,7 +10351,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8002,143 +10389,6 @@
         <a:xfrm>
           <a:off x="692150" y="6496050"/>
           <a:ext cx="7283450" cy="2368787"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3771900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1416151</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ACC1D7D-F5E3-5886-2D8F-48D367CF7575}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="647700" y="4495800"/>
-          <a:ext cx="3733800" cy="1371701"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7480300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3974753</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DD2B2E-62FE-B9C4-A110-352C4E2FB503}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="654050" y="5892800"/>
-          <a:ext cx="7435850" cy="3974753"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>10081</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6070600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>3151958</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6622F4BF-DF86-8912-240B-AA2E39073A74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="679450" y="15510431"/>
-          <a:ext cx="6000750" cy="3141877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8415,7 +10665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413DEDA0-1110-4202-9018-52ED524E0FDF}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8448,10 +10698,10 @@
       <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
@@ -8561,6 +10811,468 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B50A56A-D727-4F7B-877A-F95F5D50C0C4}">
+  <dimension ref="A1:B98"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="105.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="24"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>3</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B29" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="18"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="13">
+        <v>4</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B47" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B51" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B52" s="24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="24"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="13">
+        <v>5</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="18"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="13">
+        <v>6</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B80" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="13">
+        <v>7</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B87" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B88" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="13">
+        <v>8</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B93" s="24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21A6A74-B165-49B1-9B17-2CC5EEE2A4BD}">
   <dimension ref="A1:B37"/>
   <sheetViews>
@@ -8747,7 +11459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A3E931-BAAF-4FAD-852F-C199231CE5D0}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -8856,7 +11568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C231497-3272-4EC9-A80A-1F1BA9FDD58E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8897,7 +11609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7548946E-0D50-49AB-B4D1-E890484B2D04}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -9017,7 +11729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074511F-8E9E-4D0F-8C8D-ABC1EBBE8007}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -9058,7 +11770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C005A05-B33E-4519-8153-1D35A073C306}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -9124,7 +11836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6EBDCB-4DE0-49A1-A75F-AD165E6B90C3}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -9229,7 +11941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A338A-7612-4E80-B60E-DA6BFEE35593}">
   <dimension ref="A1:B154"/>
   <sheetViews>
@@ -9967,7 +12679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD600FB-8F10-42E9-8D78-3590520E28D5}">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -10232,7 +12944,232 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="66.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="18"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="18"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="18"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13">
+        <v>2</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="39"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="40"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+      <c r="C25" s="40"/>
+    </row>
+    <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="40"/>
+    </row>
+    <row r="27" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="41"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>3</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>4</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B40" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="13">
+        <v>5</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="C24:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB91151-9F5B-4650-93C6-5F0DE9B2CBAD}">
   <dimension ref="A1:B153"/>
   <sheetViews>
@@ -10940,18 +13877,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F5C351-95B5-4ADB-A7E7-B2FFF4553526}">
+  <dimension ref="A1:B237"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="66.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.08984375" customWidth="1"/>
+    <col min="2" max="2" width="110.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -10959,213 +13895,1076 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>16</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
-        <v>18</v>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
-        <v>19</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="18" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="18" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13">
-        <v>2</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="37"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="38"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="5"/>
-      <c r="C25" s="38"/>
-    </row>
-    <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B26" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="38"/>
-    </row>
-    <row r="27" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="39"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="13">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="30" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="18" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="18" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="18" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="30" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="18" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="18" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="18" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="18" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="18"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="18"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="30" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="18" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="18" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="18" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="18" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="18" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="30" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="179.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="18"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="30" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="18" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="18" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="18" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="30" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="18" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="30" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="18" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="18" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="18"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="30" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="18" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="18" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="18" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="18" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="18" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="18" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="18" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="18" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="30" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="18" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="18" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="30" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="18" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="18" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="18" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="18"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="30" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="18" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="18" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="18" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="18" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="18"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="42" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="19" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="13">
         <v>3</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="13">
+      <c r="B80" s="17" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="18" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="18" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="18" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="18" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="18" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="18" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="30" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="18" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="18" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="18" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="18" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="18" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="18" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="18"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="30" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="18" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="18" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="18" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="18" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="18" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="18" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="18" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="18" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="18" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="18"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="30" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="24" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B108" s="24" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="18"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="30" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="30" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="18" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="18" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="18" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="18"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="18" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="18"/>
+    </row>
+    <row r="118" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B118" s="28" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="28"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120" s="30" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="18" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="18" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="18" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="18" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="18" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="18" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="18"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="30" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="18" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="18" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="155" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="19"/>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="134" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="13">
         <v>4</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B40" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="13">
+      <c r="B134" s="17" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="18" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="18" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B137" s="18" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="18" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B139" s="18" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B140" s="18" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B141" s="18"/>
+    </row>
+    <row r="142" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B142" s="31" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="145" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="13">
         <v>5</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="B145" s="17" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="18" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="18" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="18" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="18" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B150" s="18" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B151" s="19" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="154" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="13">
+        <v>6</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B155" s="18" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B156" s="18" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B157" s="18" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B158" s="18" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B159" s="18" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B160" s="24" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="188.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B161" s="18"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B162" s="18"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B163" s="30" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B164" s="28" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B165" s="24" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B166" s="18"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B167" s="30" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B168" s="18" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B169" s="18" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B170" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B171" s="18" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B172" s="18" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B173" s="19" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="176" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="13">
+        <v>7</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B177" s="24" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B178" s="18" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B179" s="24" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B180" s="18" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B181" s="18" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B182" s="19" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="185" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A185" s="13">
+        <v>8</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B186" s="30" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B187" s="18" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B188" s="18" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B189" s="18" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B190" s="18" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B191" s="18" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B192" s="18" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B193" s="18"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B194" s="30" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B195" s="18" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B196" s="18" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B197" s="18" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B198" s="18" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B199" s="18" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B200" s="19" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="203" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A203" s="13">
+        <v>9</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B204" s="18" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B205" s="18" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B206" s="18" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B207" s="18" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B208" s="19" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="211" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A211" s="13">
+        <v>10</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B212" s="18" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B213" s="18" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B214" s="18" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B215" s="19" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="218" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A218" s="13">
+        <v>11</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B219" s="30" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B220" s="24" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B221" s="23" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="224" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="13">
+        <v>12</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="206" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B225" s="19"/>
+    </row>
+    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="228" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A228" s="13">
+        <v>13</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B229" s="18" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B230" s="18" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B231" s="18" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B232" s="18" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B233" s="18" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B234" s="18" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B235" s="18" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B236" s="30" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="176" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B237" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="C24:C27"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1444A312-FFC7-465E-8080-F1CB10BBBB59}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -11199,7 +14998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9F54C5-C7E6-4CCD-AF80-7D8DC6717BA8}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
@@ -11661,7 +15460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7CCC42-89AA-44C3-988B-A74B99D58E9B}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -12077,6 +15876,944 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98942C38-F513-4E2B-BAA6-946E16A14CD4}">
+  <dimension ref="A1:B210"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="104.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:2" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="18"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="28" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>2</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="18" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="18" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="18" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="18" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="18" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="18" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="19" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>3</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="18" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="18" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="18" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="18" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B34" s="28" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="19" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
+        <v>4</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="18" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="18" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="33" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="13">
+        <v>5</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="18" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="18" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="18" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="18" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="18" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="19" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="13">
+        <v>6</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B56" s="24" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="24" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="18" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B59" s="24" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="18" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="30" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B63" s="24" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="18"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="30" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B66" s="24" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B67" s="28" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="18" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="19" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="13">
+        <v>7</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="18" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="23" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="13">
+        <v>8</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="30" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="19" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="13">
+        <v>9</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="18" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="18" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="30" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="30" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="30" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="33" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="13">
+        <v>10</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="18" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="18" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="18" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="18" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="18" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="18" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B99" s="28" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="18" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="18" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="19" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="105" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="13">
+        <v>11</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="18" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="18" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="18" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="18" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="18" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B111" s="24" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B112" s="28" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="30" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="18"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="30" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B116" s="24" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B117" s="23" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="120" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="13">
+        <v>12</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="18" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="30" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="18" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B124" s="24" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="18" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="18" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B127" s="33" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="130" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="13">
+        <v>13</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B131" s="18" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="18" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B133" s="18" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B134" s="24" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="18" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="18" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B137" s="33" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="140" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="13">
+        <v>14</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B141" s="24" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B142" s="24" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="18" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B144" s="19" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="147" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="13">
+        <v>15</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="18" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B149" s="28" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B150" s="28" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B151" s="18"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B152" s="30" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B153" s="18" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B154" s="18" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B155" s="18" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B156" s="30" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B157" s="18" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B158" s="18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B159" s="18"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B160" s="30" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B161" s="18" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162" s="30" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163" s="18" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B164" s="18" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B165" s="18"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B166" s="30" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B167" s="18" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B168" s="18" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B169" s="18" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B170" s="18" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B171" s="18"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B172" s="30" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B173" s="18" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B174" s="18" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B175" s="18" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B176" s="18" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B177" s="18" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B178" s="18"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B179" s="30" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B180" s="18" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B181" s="18" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B182" s="18" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B183" s="18" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B184" s="18" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B185" s="18" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="244.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B186" s="19"/>
+    </row>
+    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="189" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A189" s="13">
+        <v>16</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B190" s="18" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B191" s="24" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B192" s="18" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B193" s="18" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B194" s="18" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B195" s="18" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B196" s="18" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="244" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B197" s="19"/>
+    </row>
+    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="200" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="13">
+        <v>17</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B201" s="18" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B202" s="18" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B203" s="18" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B204" s="24" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B205" s="18" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B206" s="30" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B207" s="18" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="202" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B208" s="18"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B209" s="18"/>
+    </row>
+    <row r="210" spans="2:2" ht="230.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B210" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E573FB-D72B-4EF1-877D-5ABF37887B99}">
   <dimension ref="A1:B238"/>
   <sheetViews>
@@ -12090,7 +16827,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="40">
+      <c r="A1" s="34">
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -12197,7 +16934,7 @@
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="40">
+      <c r="A24" s="34">
         <v>2</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -12243,7 +16980,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="24" t="s">
         <v>688</v>
       </c>
     </row>
@@ -12264,7 +17001,7 @@
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="40">
+      <c r="A39" s="34">
         <v>3</v>
       </c>
       <c r="B39" s="17" t="s">
@@ -12288,7 +17025,7 @@
     </row>
     <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="40">
+      <c r="A45" s="34">
         <v>4</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -12322,7 +17059,7 @@
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="40">
+      <c r="A53" s="34">
         <v>5</v>
       </c>
       <c r="B53" s="17" t="s">
@@ -12386,7 +17123,7 @@
     </row>
     <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="40">
+      <c r="A67" s="34">
         <v>7</v>
       </c>
       <c r="B67" s="17" t="s">
@@ -12466,7 +17203,7 @@
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="40">
+      <c r="A85" s="34">
         <v>8</v>
       </c>
       <c r="B85" s="17" t="s">
@@ -12495,7 +17232,7 @@
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="40">
+      <c r="A92" s="34">
         <v>9</v>
       </c>
       <c r="B92" s="17" t="s">
@@ -12527,7 +17264,7 @@
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="100" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="40">
+      <c r="A100" s="34">
         <v>10</v>
       </c>
       <c r="B100" s="17" t="s">
@@ -12556,7 +17293,7 @@
     </row>
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="107" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="40">
+      <c r="A107" s="34">
         <v>11</v>
       </c>
       <c r="B107" s="17" t="s">
@@ -12615,7 +17352,7 @@
     </row>
     <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="120" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="40">
+      <c r="A120" s="34">
         <v>12</v>
       </c>
       <c r="B120" s="17" t="s">
@@ -12764,7 +17501,7 @@
     </row>
     <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="153" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="40">
+      <c r="A153" s="34">
         <v>13</v>
       </c>
       <c r="B153" s="17" t="s">
@@ -12850,7 +17587,7 @@
     </row>
     <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="173" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A173" s="40">
+      <c r="A173" s="34">
         <v>14</v>
       </c>
       <c r="B173" s="17" t="s">
@@ -12899,7 +17636,7 @@
     </row>
     <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="184" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="40">
+      <c r="A184" s="34">
         <v>15</v>
       </c>
       <c r="B184" s="17" t="s">
@@ -12933,7 +17670,7 @@
     </row>
     <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="192" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="40">
+      <c r="A192" s="34">
         <v>16</v>
       </c>
       <c r="B192" s="17" t="s">
@@ -12977,7 +17714,7 @@
     </row>
     <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="202" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A202" s="40">
+      <c r="A202" s="34">
         <v>17</v>
       </c>
       <c r="B202" s="17" t="s">
@@ -13006,7 +17743,7 @@
     </row>
     <row r="208" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="209" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A209" s="40">
+      <c r="A209" s="34">
         <v>18</v>
       </c>
       <c r="B209" s="17" t="s">
@@ -13073,7 +17810,7 @@
     </row>
     <row r="223" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="224" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A224" s="40">
+      <c r="A224" s="34">
         <v>19</v>
       </c>
       <c r="B224" s="17" t="s">
@@ -13118,7 +17855,7 @@
     </row>
     <row r="234" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="235" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A235" s="40">
+      <c r="A235" s="34">
         <v>20</v>
       </c>
       <c r="B235" s="17" t="s">
@@ -13147,7 +17884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DECFAD2-42C6-491B-91E1-2BB880831D61}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -13238,11 +17975,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDCCF63-ED9B-43EB-9F18-5027B7DADAE4}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -13553,466 +18290,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B50A56A-D727-4F7B-877A-F95F5D50C0C4}">
-  <dimension ref="A1:B98"/>
-  <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:XFD101"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="105.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="24"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="24" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13">
-        <v>3</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B29" s="24" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="24" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="18"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="13">
-        <v>4</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="B47" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B51" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="B52" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="24" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="24"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="13">
-        <v>5</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="18"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="13">
-        <v>6</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="18" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B80" s="24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="13">
-        <v>7</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B87" s="24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B88" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="13">
-        <v>8</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B93" s="24" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>